--- a/data/trans_orig/P64S_2023_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P64S_2023_R-Provincia-trans_orig.xlsx
@@ -835,19 +835,19 @@
         <v>8557</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4269</v>
+        <v>4183</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16679</v>
+        <v>15689</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.04316429883306892</v>
+        <v>0.0431642988330689</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02153283343773549</v>
+        <v>0.02110070951071929</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08413055134959578</v>
+        <v>0.07913493944835122</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>16</v>
@@ -856,19 +856,19 @@
         <v>8605</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5042</v>
+        <v>5162</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>13515</v>
+        <v>14224</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05688231920278495</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03333116471767571</v>
+        <v>0.03412559299155985</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08933497166256255</v>
+        <v>0.09402745984565788</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>25</v>
@@ -877,19 +877,19 @@
         <v>17163</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>11071</v>
+        <v>11150</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>25314</v>
+        <v>26254</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.0491015069247408</v>
+        <v>0.04910150692474079</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03167436751216846</v>
+        <v>0.03190058804173691</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.07242283871571931</v>
+        <v>0.07511126802253119</v>
       </c>
     </row>
     <row r="7">
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7170</v>
+        <v>6597</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.006022910003220927</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03616433323081381</v>
+        <v>0.03327753344863638</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6144</v>
+        <v>5847</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01063688031594819</v>
@@ -939,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04061272212580656</v>
+        <v>0.03864937954662631</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -951,16 +951,16 @@
         <v>517</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>7826</v>
+        <v>7713</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008019852793591287</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001479416058266301</v>
+        <v>0.001478064503960173</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02238916383393876</v>
+        <v>0.02206750854312987</v>
       </c>
     </row>
     <row r="8">
@@ -1071,19 +1071,19 @@
         <v>2632</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>848</v>
+        <v>829</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7227</v>
+        <v>6655</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01327410417503444</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00427977949665205</v>
+        <v>0.004180965852740502</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03645216593791149</v>
+        <v>0.03356850652707628</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>2632</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7184</v>
+        <v>7060</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.007529024594040829</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002402682042801599</v>
+        <v>0.002412162659076546</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0205545470541711</v>
+        <v>0.02019949573813585</v>
       </c>
     </row>
     <row r="11">
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5641</v>
+        <v>6405</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.005613085160922714</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02845441558670962</v>
+        <v>0.03230699590373174</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>3122</v>
+        <v>3157</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.006612225579300249</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02063465194527874</v>
+        <v>0.02086741392799658</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3</v>
@@ -1223,19 +1223,19 @@
         <v>2113</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>6435</v>
+        <v>7367</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.006045516693813806</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.001411136616637032</v>
+        <v>0.001406269233107177</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01841021165642653</v>
+        <v>0.02107751562941474</v>
       </c>
     </row>
     <row r="13">
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>14732</v>
+        <v>11523</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01430447869092731</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0743079217525231</v>
+        <v>0.05812168584044043</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -1320,19 +1320,19 @@
         <v>3462</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1456</v>
+        <v>1040</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7718</v>
+        <v>7327</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02288631859910754</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.009625006225415388</v>
+        <v>0.006872792442675335</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05101814860990182</v>
+        <v>0.04843332350641843</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7</v>
@@ -1341,19 +1341,19 @@
         <v>6298</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2340</v>
+        <v>2392</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>17046</v>
+        <v>18185</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01801872957925247</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.006695323438749728</v>
+        <v>0.006843388832637023</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04876886508258043</v>
+        <v>0.05202708810872174</v>
       </c>
     </row>
     <row r="15">
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4307</v>
+        <v>4200</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.004318665988626002</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0217247465128518</v>
+        <v>0.0211856730592211</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>4411</v>
+        <v>5059</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.002449531961860504</v>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.01261889667279699</v>
+        <v>0.01447471230010779</v>
       </c>
     </row>
     <row r="16">
@@ -1433,19 +1433,19 @@
         <v>4695</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1690</v>
+        <v>1631</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10410</v>
+        <v>9909</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02368267530399208</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008522053501017634</v>
+        <v>0.008226448683553001</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05250821960842081</v>
+        <v>0.0499801124922339</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1454,19 +1454,19 @@
         <v>1530</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4068</v>
+        <v>4165</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01011099525303063</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00307747087123277</v>
+        <v>0.00308468425302871</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02689386926024064</v>
+        <v>0.0275324833069615</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -1475,19 +1475,19 @@
         <v>6225</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2734</v>
+        <v>3055</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12066</v>
+        <v>11970</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01780880382367015</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007822217665101333</v>
+        <v>0.008741193342600682</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0345206979613176</v>
+        <v>0.03424602841432214</v>
       </c>
     </row>
     <row r="17">
@@ -1504,19 +1504,19 @@
         <v>151452</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>137213</v>
+        <v>137453</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>162956</v>
+        <v>163582</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7639289811949176</v>
+        <v>0.7639289811949173</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6921086315387651</v>
+        <v>0.6933159076196589</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8219552502518356</v>
+        <v>0.8251134307741589</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>177</v>
@@ -1525,19 +1525,19 @@
         <v>104892</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>95067</v>
+        <v>94603</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>113618</v>
+        <v>113347</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6933706296544792</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.628424641992645</v>
+        <v>0.6253529477146115</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7510520942445771</v>
+        <v>0.7492548248330989</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>333</v>
@@ -1546,19 +1546,19 @@
         <v>256344</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>237653</v>
+        <v>237872</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>270748</v>
+        <v>271124</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7333910752572845</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6799171990661402</v>
+        <v>0.6805424894637647</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7745984666033842</v>
+        <v>0.7756758049045482</v>
       </c>
     </row>
     <row r="18">
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11435</v>
+        <v>14441</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01167808337003864</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05767849907969914</v>
+        <v>0.07284226579280624</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>11669</v>
+        <v>11566</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.006623767279877628</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03338412953296013</v>
+        <v>0.03308903138292087</v>
       </c>
     </row>
     <row r="19">
@@ -1638,19 +1638,19 @@
         <v>22603</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>14331</v>
+        <v>14171</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>35099</v>
+        <v>34232</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1140127172792515</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07228663493640108</v>
+        <v>0.07147869798372483</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1770395850069557</v>
+        <v>0.172667838279062</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>48</v>
@@ -1659,19 +1659,19 @@
         <v>30180</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>22538</v>
+        <v>22974</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>39420</v>
+        <v>38391</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1995006313953494</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1489840010020348</v>
+        <v>0.1518662052058264</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2605785647411243</v>
+        <v>0.2537735870700152</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>67</v>
@@ -1680,19 +1680,19 @@
         <v>52784</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>40793</v>
+        <v>40957</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>68242</v>
+        <v>67352</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.151012191091868</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1167059935783304</v>
+        <v>0.1171764509380168</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1952388829272018</v>
+        <v>0.1926921541568044</v>
       </c>
     </row>
     <row r="20">
@@ -1787,16 +1787,16 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8021</v>
+        <v>7241</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.005732669339885619</v>
+        <v>0.00573266933988562</v>
       </c>
       <c r="H21" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.031985097059847</v>
+        <v>0.02887773992210733</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>7442</v>
+        <v>7250</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.003416850764237846</v>
+        <v>0.003416850764237845</v>
       </c>
       <c r="V21" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01768813362625205</v>
+        <v>0.01723151847711495</v>
       </c>
     </row>
     <row r="22">
@@ -1894,19 +1894,19 @@
         <v>9109</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3885</v>
+        <v>3644</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>17117</v>
+        <v>17444</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.0363243711320391</v>
+        <v>0.03632437113203911</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01549253124052146</v>
+        <v>0.0145300234749079</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06825842219744115</v>
+        <v>0.06956574637508188</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>18</v>
@@ -1915,19 +1915,19 @@
         <v>13689</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>8191</v>
+        <v>8043</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>20858</v>
+        <v>20751</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.08054455283968497</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.04819247320780781</v>
+        <v>0.04732123082475825</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1227230295648015</v>
+        <v>0.1220961247012016</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>25</v>
@@ -1936,19 +1936,19 @@
         <v>22798</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>14346</v>
+        <v>14822</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>33765</v>
+        <v>34113</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.05418793732529341</v>
+        <v>0.05418793732529339</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03409958538466087</v>
+        <v>0.03523092591590196</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.08025661943290857</v>
+        <v>0.08108369080815971</v>
       </c>
     </row>
     <row r="24">
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6833</v>
+        <v>7171</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.005348559452138742</v>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02724938147867645</v>
+        <v>0.02859543201063547</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>4735</v>
+        <v>3955</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.004618091048468335</v>
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02785856725975352</v>
+        <v>0.02327008015275244</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2</v>
@@ -2010,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>7666</v>
+        <v>8942</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.005053473132337598</v>
+        <v>0.005053473132337597</v>
       </c>
       <c r="V24" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01822216905171528</v>
+        <v>0.02125318222339651</v>
       </c>
     </row>
     <row r="25">
@@ -2039,16 +2039,16 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>9802</v>
+        <v>10581</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.007530742490799594</v>
+        <v>0.007530742490799595</v>
       </c>
       <c r="H25" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03909081928288549</v>
+        <v>0.04219502086909186</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -2073,16 +2073,16 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>10244</v>
+        <v>9446</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.004488558768938244</v>
+        <v>0.004488558768938243</v>
       </c>
       <c r="V25" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02434811500671726</v>
+        <v>0.02245199138374364</v>
       </c>
     </row>
     <row r="26">
@@ -2240,19 +2240,19 @@
         <v>5292</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1006</v>
+        <v>1024</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>16208</v>
+        <v>15275</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02110391683221852</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.004011014670106467</v>
+        <v>0.004083535913377749</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06463300680310469</v>
+        <v>0.06091501324559486</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5</v>
@@ -2261,19 +2261,19 @@
         <v>4928</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1561</v>
+        <v>1656</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>12345</v>
+        <v>12395</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02899599887124171</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.00918509614645498</v>
+        <v>0.009745553445476821</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.07263394294629326</v>
+        <v>0.07293230313249849</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8</v>
@@ -2282,19 +2282,19 @@
         <v>10220</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4786</v>
+        <v>4105</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>22505</v>
+        <v>22053</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02429207039609924</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01137609038652216</v>
+        <v>0.009757812896216007</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05349271597802135</v>
+        <v>0.05241842952456434</v>
       </c>
     </row>
     <row r="30">
@@ -2314,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>11825</v>
+        <v>10794</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01319236272785714</v>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04715729474031817</v>
+        <v>0.04304462847858048</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>3</v>
@@ -2332,19 +2332,19 @@
         <v>3216</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>8803</v>
+        <v>9621</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01892426135481216</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.003805554038733281</v>
+        <v>0.003792933001560467</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05179609926064863</v>
+        <v>0.05660802212401371</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>5</v>
@@ -2353,19 +2353,19 @@
         <v>6524</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1918</v>
+        <v>2061</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>14201</v>
+        <v>15026</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01550786995965873</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.004559226351657334</v>
+        <v>0.004899530028143614</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03375378910772152</v>
+        <v>0.03571505584340318</v>
       </c>
     </row>
     <row r="31">
@@ -2385,16 +2385,16 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>7059</v>
+        <v>7547</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.005410576298896059</v>
+        <v>0.00541057629889606</v>
       </c>
       <c r="H31" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02815141924492502</v>
+        <v>0.03009633108722242</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>3</v>
@@ -2406,16 +2406,16 @@
         <v>692</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>5800</v>
+        <v>6013</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01289332726960843</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.004071484808406626</v>
+        <v>0.004071333432424613</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03412611994441808</v>
+        <v>0.0353817367516576</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>4</v>
@@ -2424,19 +2424,19 @@
         <v>3548</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1335</v>
+        <v>770</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>9129</v>
+        <v>8887</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.00843337295216821</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.003172368736839731</v>
+        <v>0.001831128139591693</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02169931718939213</v>
+        <v>0.02112335424542792</v>
       </c>
     </row>
     <row r="32">
@@ -2456,16 +2456,16 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>7267</v>
+        <v>7480</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.00567957219808397</v>
+        <v>0.005679572198083971</v>
       </c>
       <c r="H32" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02898053755429438</v>
+        <v>0.02982881079261584</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>7676</v>
+        <v>7186</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.003385203202031261</v>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01824482642595507</v>
+        <v>0.0170807772081576</v>
       </c>
     </row>
     <row r="33">
@@ -2516,19 +2516,19 @@
         <v>5454</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>1280</v>
+        <v>1492</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>12870</v>
+        <v>13583</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.02174873179672498</v>
+        <v>0.02174873179672499</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.005105946202898233</v>
+        <v>0.005951712910368728</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.05132341294729604</v>
+        <v>0.0541682481740105</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>4</v>
@@ -2537,19 +2537,19 @@
         <v>4958</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>1497</v>
+        <v>1568</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>12240</v>
+        <v>13801</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.02917030972473776</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.008809660668448925</v>
+        <v>0.009228750602724172</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.07202009969681884</v>
+        <v>0.08120018528320455</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>8</v>
@@ -2558,19 +2558,19 @@
         <v>10411</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>4887</v>
+        <v>5133</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>19569</v>
+        <v>20999</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.02474681645978571</v>
+        <v>0.0247468164597857</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.01161664868427422</v>
+        <v>0.01220162776102771</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.0465121428692323</v>
+        <v>0.04991239976612565</v>
       </c>
     </row>
     <row r="34">
@@ -2587,19 +2587,19 @@
         <v>180995</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>161435</v>
+        <v>162729</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>197215</v>
+        <v>199255</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.7217790260674284</v>
+        <v>0.7217790260674285</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.6437781002873432</v>
+        <v>0.6489366077412231</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.7864636442317113</v>
+        <v>0.7945964783480598</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>122</v>
@@ -2608,19 +2608,19 @@
         <v>102157</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>89618</v>
+        <v>91110</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>113255</v>
+        <v>114153</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.6010782140906632</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.5272995999661193</v>
+        <v>0.5360787212881064</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.6663753693839487</v>
+        <v>0.6716574421461916</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>243</v>
@@ -2629,19 +2629,19 @@
         <v>283152</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>259893</v>
+        <v>261098</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>302666</v>
+        <v>305146</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.6730196844939026</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.6177360736492591</v>
+        <v>0.6205996377015149</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.7194011499303975</v>
+        <v>0.725296054512503</v>
       </c>
     </row>
     <row r="35">
@@ -2671,19 +2671,19 @@
         <v>2775</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>718</v>
+        <v>727</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>7681</v>
+        <v>7584</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01632994761179423</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.00422204033798588</v>
+        <v>0.004276405231357038</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.0451948412064867</v>
+        <v>0.0446207745062096</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>3</v>
@@ -2695,16 +2695,16 @@
         <v>703</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>8089</v>
+        <v>7123</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.006596786553801587</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.001671217647679955</v>
+        <v>0.00167205839129104</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01922627681981305</v>
+        <v>0.01693138406896104</v>
       </c>
     </row>
     <row r="36">
@@ -2721,19 +2721,19 @@
         <v>39156</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>26252</v>
+        <v>25138</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>57001</v>
+        <v>55638</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1561494716639278</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1046892304019302</v>
+        <v>0.1002476388440921</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2273116530399442</v>
+        <v>0.2218756311587791</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>46</v>
@@ -2742,19 +2742,19 @@
         <v>35257</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>26439</v>
+        <v>26469</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>44880</v>
+        <v>45238</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2074452971889893</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1555618546366045</v>
+        <v>0.1557383201420138</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2640663557368924</v>
+        <v>0.2661715568521109</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>71</v>
@@ -2763,19 +2763,19 @@
         <v>74413</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>57045</v>
+        <v>57175</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>92674</v>
+        <v>93838</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1768713759917457</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1355895566094708</v>
+        <v>0.1358991369087478</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2202749360890076</v>
+        <v>0.2230418605081618</v>
       </c>
     </row>
     <row r="37">
@@ -2917,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>4675</v>
+        <v>5720</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.006231489249477417</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.03152306947707586</v>
+        <v>0.0385705703179844</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>0</v>
@@ -2951,16 +2951,16 @@
         <v>0</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>5297</v>
+        <v>5800</v>
       </c>
       <c r="U39" s="6" t="n">
-        <v>0.003440575200287246</v>
+        <v>0.003440575200287247</v>
       </c>
       <c r="V39" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.01972113203200943</v>
+        <v>0.02159459264831626</v>
       </c>
     </row>
     <row r="40">
@@ -2977,19 +2977,19 @@
         <v>16499</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>10538</v>
+        <v>10197</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>25473</v>
+        <v>25258</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.111253597831566</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.07105516840184467</v>
+        <v>0.06875713039121718</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1717673340528218</v>
+        <v>0.1703154338074323</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>12</v>
@@ -2998,19 +2998,19 @@
         <v>10826</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>5341</v>
+        <v>5724</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>18175</v>
+        <v>19540</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.08999597149846407</v>
+        <v>0.08999597149846408</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.04439857492683512</v>
+        <v>0.04757914969445769</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1510829928623741</v>
+        <v>0.1624308514087035</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>30</v>
@@ -3019,19 +3019,19 @@
         <v>27326</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>18957</v>
+        <v>18392</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>38799</v>
+        <v>37566</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1017328868730316</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.07057519807906518</v>
+        <v>0.06847183893371191</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1444467562821041</v>
+        <v>0.1398584634239932</v>
       </c>
     </row>
     <row r="41">
@@ -3051,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>3812</v>
+        <v>3885</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.005143155490252748</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.0257021796267756</v>
+        <v>0.02619615775401385</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1</v>
@@ -3072,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>6376</v>
+        <v>7195</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.01041555650082205</v>
@@ -3081,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.05300151523845211</v>
+        <v>0.05980786820775935</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2</v>
@@ -3093,16 +3093,16 @@
         <v>0</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>7165</v>
+        <v>6987</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.007504520079720075</v>
+        <v>0.007504520079720077</v>
       </c>
       <c r="V41" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.02667666873291348</v>
+        <v>0.02601392138435314</v>
       </c>
     </row>
     <row r="42">
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>3260</v>
+        <v>3311</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.005586851997588575</v>
@@ -3191,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.02709908779119906</v>
+        <v>0.02752028901806989</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>1</v>
@@ -3203,16 +3203,16 @@
         <v>0</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>4322</v>
+        <v>3350</v>
       </c>
       <c r="U43" s="6" t="n">
-        <v>0.002502198608803461</v>
+        <v>0.002502198608803462</v>
       </c>
       <c r="V43" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.01608949408906567</v>
+        <v>0.01247123888582526</v>
       </c>
     </row>
     <row r="44">
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>5640</v>
+        <v>5616</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.007545961086015214</v>
@@ -3335,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.03802888693261387</v>
+        <v>0.03787008686205113</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>6</v>
@@ -3344,19 +3344,19 @@
         <v>5470</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>2219</v>
+        <v>1978</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>12662</v>
+        <v>11641</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.04547318509150192</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.01844854480553442</v>
+        <v>0.0164425576293454</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1052526954147307</v>
+        <v>0.09676489648405395</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>7</v>
@@ -3365,19 +3365,19 @@
         <v>6589</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>2723</v>
+        <v>2824</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>14106</v>
+        <v>13811</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.02453253012046751</v>
+        <v>0.02453253012046753</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.01013634025058045</v>
+        <v>0.01051273556203752</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.05251569184463489</v>
+        <v>0.0514195818381354</v>
       </c>
     </row>
     <row r="47">
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>4639</v>
+        <v>5684</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.006210251731380331</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.03128200030547903</v>
+        <v>0.03832664521007925</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>0</v>
@@ -3431,16 +3431,16 @@
         <v>0</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>4646</v>
+        <v>4939</v>
       </c>
       <c r="U47" s="6" t="n">
-        <v>0.003428849387218306</v>
+        <v>0.003428849387218307</v>
       </c>
       <c r="V47" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.01729803400533053</v>
+        <v>0.01838791211248788</v>
       </c>
     </row>
     <row r="48">
@@ -3460,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>7553</v>
+        <v>7134</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.01456846297251582</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.05092839266764362</v>
+        <v>0.04810744597286138</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>2</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>4340</v>
+        <v>4207</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.01016334947174002</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.03607549711773885</v>
+        <v>0.03496716329174556</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>4</v>
@@ -3499,19 +3499,19 @@
         <v>3383</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>936</v>
+        <v>650</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>8881</v>
+        <v>8585</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.01259553280038666</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.003485966181023874</v>
+        <v>0.00242132983915374</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.03306534682226477</v>
+        <v>0.03196362606097072</v>
       </c>
     </row>
     <row r="49">
@@ -3528,19 +3528,19 @@
         <v>2611</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>7050</v>
+        <v>7030</v>
       </c>
       <c r="G49" s="6" t="n">
-        <v>0.0176049012530137</v>
+        <v>0.01760490125301369</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.005765287015810916</v>
+        <v>0.005768860344727129</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.04753512442790285</v>
+        <v>0.04740466327153014</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>0</v>
@@ -3562,19 +3562,19 @@
         <v>2611</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>848</v>
+        <v>859</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>6934</v>
+        <v>7063</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.009720146217006533</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.003158679279790851</v>
+        <v>0.003197831311581541</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.02581406565061975</v>
+        <v>0.02629479990995727</v>
       </c>
     </row>
     <row r="50">
@@ -3604,19 +3604,19 @@
         <v>5351</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>2055</v>
+        <v>2142</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>11108</v>
+        <v>10986</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.04447902193358112</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.01708214625095943</v>
+        <v>0.01780735262075964</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.09233622197205606</v>
+        <v>0.09131887240714125</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>7</v>
@@ -3625,19 +3625,19 @@
         <v>5351</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>2031</v>
+        <v>2644</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>10671</v>
+        <v>11164</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.01992094060325621</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.007562373286075163</v>
+        <v>0.009844267190168329</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.03972868800332232</v>
+        <v>0.04156515812805685</v>
       </c>
     </row>
     <row r="51">
@@ -3654,19 +3654,19 @@
         <v>104017</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>91767</v>
+        <v>92995</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>114139</v>
+        <v>113811</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.7013864802815792</v>
+        <v>0.7013864802815791</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.6187866348161476</v>
+        <v>0.6270648897748</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.7696360067716409</v>
+        <v>0.7674252045621509</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>77</v>
@@ -3675,19 +3675,19 @@
         <v>55764</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>46401</v>
+        <v>45533</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>65884</v>
+        <v>64830</v>
       </c>
       <c r="N51" s="6" t="n">
         <v>0.4635438431179659</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.3857160962299367</v>
+        <v>0.378497719456549</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.5476664858935835</v>
+        <v>0.5389058092157349</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>180</v>
@@ -3696,19 +3696,19 @@
         <v>159781</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>146239</v>
+        <v>145964</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>175429</v>
+        <v>175017</v>
       </c>
       <c r="U51" s="6" t="n">
-        <v>0.594863251085278</v>
+        <v>0.5948632510852784</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.5444462891252789</v>
+        <v>0.5434244031117986</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.6531223633644968</v>
+        <v>0.6515867707687503</v>
       </c>
     </row>
     <row r="52">
@@ -3728,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>5794</v>
+        <v>6463</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.01245435747227603</v>
@@ -3737,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.03906745511744487</v>
+        <v>0.04358251598651677</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>3</v>
@@ -3746,19 +3746,19 @@
         <v>2091</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>661</v>
+        <v>677</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>6169</v>
+        <v>5739</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.01737959642726575</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.005495682160974884</v>
+        <v>0.005624305445193813</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.05128147323411204</v>
+        <v>0.04770393572645584</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>5</v>
@@ -3767,19 +3767,19 @@
         <v>3938</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>1588</v>
+        <v>1368</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>9354</v>
+        <v>8667</v>
       </c>
       <c r="U52" s="6" t="n">
-        <v>0.01466023764710779</v>
+        <v>0.0146602376471078</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.005913415032655227</v>
+        <v>0.005093294627407313</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.03482649681928048</v>
+        <v>0.03226636488606733</v>
       </c>
     </row>
     <row r="53">
@@ -3796,19 +3796,19 @@
         <v>17441</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>11083</v>
+        <v>11101</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>26515</v>
+        <v>27439</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.1176013426319236</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.07473596935480735</v>
+        <v>0.07485629622508504</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.1787877799572594</v>
+        <v>0.1850207533163174</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>55</v>
@@ -3817,19 +3817,19 @@
         <v>37649</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>29585</v>
+        <v>29979</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>46845</v>
+        <v>47120</v>
       </c>
       <c r="N53" s="6" t="n">
-        <v>0.3129626239610706</v>
+        <v>0.3129626239610707</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.2459321699057242</v>
+        <v>0.249205337256079</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.3894059399572005</v>
+        <v>0.3916948212195311</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>73</v>
@@ -3838,19 +3838,19 @@
         <v>55090</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>43483</v>
+        <v>44872</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>68112</v>
+        <v>67529</v>
       </c>
       <c r="U53" s="6" t="n">
-        <v>0.2050983313774363</v>
+        <v>0.2050983313774364</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.161886787845559</v>
+        <v>0.1670581940358984</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.2535791775324212</v>
+        <v>0.2514087507604767</v>
       </c>
     </row>
     <row r="54">
@@ -4036,19 +4036,19 @@
         <v>5596</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>16629</v>
+        <v>16272</v>
       </c>
       <c r="G57" s="6" t="n">
         <v>0.02689125242238927</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.005508224568203222</v>
+        <v>0.005484073009293975</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.07991378720269997</v>
+        <v>0.0781964728233018</v>
       </c>
       <c r="J57" s="5" t="n">
         <v>8</v>
@@ -4057,19 +4057,19 @@
         <v>7693</v>
       </c>
       <c r="L57" s="5" t="n">
-        <v>3567</v>
+        <v>3870</v>
       </c>
       <c r="M57" s="5" t="n">
-        <v>15206</v>
+        <v>16085</v>
       </c>
       <c r="N57" s="6" t="n">
-        <v>0.04311708558615771</v>
+        <v>0.0431170855861577</v>
       </c>
       <c r="O57" s="6" t="n">
-        <v>0.01999083914048928</v>
+        <v>0.02169053389217413</v>
       </c>
       <c r="P57" s="6" t="n">
-        <v>0.08522316831198715</v>
+        <v>0.09014849425556748</v>
       </c>
       <c r="Q57" s="5" t="n">
         <v>11</v>
@@ -4078,19 +4078,19 @@
         <v>13289</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>6347</v>
+        <v>6570</v>
       </c>
       <c r="T57" s="5" t="n">
-        <v>25715</v>
+        <v>25666</v>
       </c>
       <c r="U57" s="6" t="n">
         <v>0.03438166546493925</v>
       </c>
       <c r="V57" s="6" t="n">
-        <v>0.01642139796408815</v>
+        <v>0.01699886706921233</v>
       </c>
       <c r="W57" s="6" t="n">
-        <v>0.06652976615328958</v>
+        <v>0.06640320239603947</v>
       </c>
     </row>
     <row r="58">
@@ -4110,16 +4110,16 @@
         <v>0</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>5845</v>
+        <v>6161</v>
       </c>
       <c r="G58" s="6" t="n">
-        <v>0.005207277040355464</v>
+        <v>0.005207277040355463</v>
       </c>
       <c r="H58" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I58" s="6" t="n">
-        <v>0.02808843941966494</v>
+        <v>0.02960688489661694</v>
       </c>
       <c r="J58" s="5" t="n">
         <v>1</v>
@@ -4131,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="5" t="n">
-        <v>2602</v>
+        <v>2519</v>
       </c>
       <c r="N58" s="6" t="n">
         <v>0.003380761425135579</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="P58" s="6" t="n">
-        <v>0.01458503637866818</v>
+        <v>0.01411967858471675</v>
       </c>
       <c r="Q58" s="5" t="n">
         <v>2</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="T58" s="5" t="n">
-        <v>6050</v>
+        <v>5769</v>
       </c>
       <c r="U58" s="6" t="n">
         <v>0.004364093442411533</v>
@@ -4161,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="W58" s="6" t="n">
-        <v>0.01565236970898367</v>
+        <v>0.01492442040066399</v>
       </c>
     </row>
     <row r="59">
@@ -4382,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="M63" s="5" t="n">
-        <v>7123</v>
+        <v>7204</v>
       </c>
       <c r="N63" s="6" t="n">
         <v>0.006693786326818316</v>
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="P63" s="6" t="n">
-        <v>0.03991952925603176</v>
+        <v>0.04037383564266202</v>
       </c>
       <c r="Q63" s="5" t="n">
         <v>1</v>
@@ -4403,16 +4403,16 @@
         <v>0</v>
       </c>
       <c r="T63" s="5" t="n">
-        <v>6074</v>
+        <v>5599</v>
       </c>
       <c r="U63" s="6" t="n">
-        <v>0.00309008627787455</v>
+        <v>0.003090086277874551</v>
       </c>
       <c r="V63" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W63" s="6" t="n">
-        <v>0.01571399878894914</v>
+        <v>0.01448644868166742</v>
       </c>
     </row>
     <row r="64">
@@ -4476,19 +4476,19 @@
         <v>17863</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>9550</v>
+        <v>9235</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>31215</v>
+        <v>32077</v>
       </c>
       <c r="G65" s="6" t="n">
         <v>0.08584196715645945</v>
       </c>
       <c r="H65" s="6" t="n">
-        <v>0.04589327218490343</v>
+        <v>0.04437790950248512</v>
       </c>
       <c r="I65" s="6" t="n">
-        <v>0.1500086673222966</v>
+        <v>0.1541521119644633</v>
       </c>
       <c r="J65" s="5" t="n">
         <v>10</v>
@@ -4497,19 +4497,19 @@
         <v>6128</v>
       </c>
       <c r="L65" s="5" t="n">
-        <v>3119</v>
+        <v>3356</v>
       </c>
       <c r="M65" s="5" t="n">
-        <v>11654</v>
+        <v>12033</v>
       </c>
       <c r="N65" s="6" t="n">
         <v>0.03434528675347676</v>
       </c>
       <c r="O65" s="6" t="n">
-        <v>0.01748246095286218</v>
+        <v>0.01881039481002087</v>
       </c>
       <c r="P65" s="6" t="n">
-        <v>0.06531165013261972</v>
+        <v>0.06743805547266921</v>
       </c>
       <c r="Q65" s="5" t="n">
         <v>22</v>
@@ -4518,19 +4518,19 @@
         <v>23991</v>
       </c>
       <c r="S65" s="5" t="n">
-        <v>14737</v>
+        <v>14891</v>
       </c>
       <c r="T65" s="5" t="n">
-        <v>37693</v>
+        <v>38926</v>
       </c>
       <c r="U65" s="6" t="n">
         <v>0.06206929535308785</v>
       </c>
       <c r="V65" s="6" t="n">
-        <v>0.03812737110603921</v>
+        <v>0.03852626183126397</v>
       </c>
       <c r="W65" s="6" t="n">
-        <v>0.0975189733404916</v>
+        <v>0.1007096202896586</v>
       </c>
     </row>
     <row r="66">
@@ -4597,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>6084</v>
+        <v>6714</v>
       </c>
       <c r="G67" s="6" t="n">
         <v>0.008618013196460238</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="I67" s="6" t="n">
-        <v>0.02923873484050682</v>
+        <v>0.03226500414858793</v>
       </c>
       <c r="J67" s="5" t="n">
         <v>11</v>
@@ -4615,19 +4615,19 @@
         <v>10813</v>
       </c>
       <c r="L67" s="5" t="n">
-        <v>5631</v>
+        <v>5336</v>
       </c>
       <c r="M67" s="5" t="n">
-        <v>20029</v>
+        <v>20106</v>
       </c>
       <c r="N67" s="6" t="n">
-        <v>0.06059889932145707</v>
+        <v>0.06059889932145708</v>
       </c>
       <c r="O67" s="6" t="n">
-        <v>0.03155730491751768</v>
+        <v>0.02990631489160042</v>
       </c>
       <c r="P67" s="6" t="n">
-        <v>0.1122487967832771</v>
+        <v>0.1126828745803534</v>
       </c>
       <c r="Q67" s="5" t="n">
         <v>13</v>
@@ -4636,19 +4636,19 @@
         <v>12606</v>
       </c>
       <c r="S67" s="5" t="n">
-        <v>6731</v>
+        <v>6289</v>
       </c>
       <c r="T67" s="5" t="n">
-        <v>21902</v>
+        <v>21592</v>
       </c>
       <c r="U67" s="6" t="n">
         <v>0.03261421132472656</v>
       </c>
       <c r="V67" s="6" t="n">
-        <v>0.01741469276356628</v>
+        <v>0.0162718465944752</v>
       </c>
       <c r="W67" s="6" t="n">
-        <v>0.05666373443211304</v>
+        <v>0.05586254180254687</v>
       </c>
     </row>
     <row r="68">
@@ -4665,19 +4665,19 @@
         <v>134207</v>
       </c>
       <c r="E68" s="5" t="n">
-        <v>114140</v>
+        <v>113258</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>152618</v>
+        <v>150949</v>
       </c>
       <c r="G68" s="6" t="n">
         <v>0.6449538566232412</v>
       </c>
       <c r="H68" s="6" t="n">
-        <v>0.5485186227584057</v>
+        <v>0.5442805240872897</v>
       </c>
       <c r="I68" s="6" t="n">
-        <v>0.7334291056616826</v>
+        <v>0.7254086705209597</v>
       </c>
       <c r="J68" s="5" t="n">
         <v>102</v>
@@ -4686,19 +4686,19 @@
         <v>98777</v>
       </c>
       <c r="L68" s="5" t="n">
-        <v>85719</v>
+        <v>83638</v>
       </c>
       <c r="M68" s="5" t="n">
-        <v>112950</v>
+        <v>111685</v>
       </c>
       <c r="N68" s="6" t="n">
         <v>0.5535854921075022</v>
       </c>
       <c r="O68" s="6" t="n">
-        <v>0.4804038781649793</v>
+        <v>0.4687419367382529</v>
       </c>
       <c r="P68" s="6" t="n">
-        <v>0.6330182233215064</v>
+        <v>0.6259307092459439</v>
       </c>
       <c r="Q68" s="5" t="n">
         <v>175</v>
@@ -4707,19 +4707,19 @@
         <v>232984</v>
       </c>
       <c r="S68" s="5" t="n">
-        <v>210431</v>
+        <v>208020</v>
       </c>
       <c r="T68" s="5" t="n">
-        <v>256294</v>
+        <v>254597</v>
       </c>
       <c r="U68" s="6" t="n">
         <v>0.6027750185729798</v>
       </c>
       <c r="V68" s="6" t="n">
-        <v>0.5444255170542438</v>
+        <v>0.5381878572195731</v>
       </c>
       <c r="W68" s="6" t="n">
-        <v>0.6630829826623819</v>
+        <v>0.6586920168707809</v>
       </c>
     </row>
     <row r="69">
@@ -4736,19 +4736,19 @@
         <v>10420</v>
       </c>
       <c r="E69" s="5" t="n">
-        <v>3183</v>
+        <v>3774</v>
       </c>
       <c r="F69" s="5" t="n">
-        <v>28171</v>
+        <v>28333</v>
       </c>
       <c r="G69" s="6" t="n">
-        <v>0.05007425458731917</v>
+        <v>0.05007425458731916</v>
       </c>
       <c r="H69" s="6" t="n">
-        <v>0.01529479157557644</v>
+        <v>0.01813594950442607</v>
       </c>
       <c r="I69" s="6" t="n">
-        <v>0.1353802890827556</v>
+        <v>0.1361606198459389</v>
       </c>
       <c r="J69" s="5" t="n">
         <v>2</v>
@@ -4760,7 +4760,7 @@
         <v>0</v>
       </c>
       <c r="M69" s="5" t="n">
-        <v>5421</v>
+        <v>5598</v>
       </c>
       <c r="N69" s="6" t="n">
         <v>0.009361669604770912</v>
@@ -4769,7 +4769,7 @@
         <v>0</v>
       </c>
       <c r="P69" s="6" t="n">
-        <v>0.03037900377514141</v>
+        <v>0.03137472341473021</v>
       </c>
       <c r="Q69" s="5" t="n">
         <v>7</v>
@@ -4778,19 +4778,19 @@
         <v>12090</v>
       </c>
       <c r="S69" s="5" t="n">
-        <v>5161</v>
+        <v>4504</v>
       </c>
       <c r="T69" s="5" t="n">
-        <v>31562</v>
+        <v>28678</v>
       </c>
       <c r="U69" s="6" t="n">
         <v>0.03127989903889945</v>
       </c>
       <c r="V69" s="6" t="n">
-        <v>0.01335141968942398</v>
+        <v>0.01165255632519766</v>
       </c>
       <c r="W69" s="6" t="n">
-        <v>0.08165613821271356</v>
+        <v>0.07419536825092807</v>
       </c>
     </row>
     <row r="70">
@@ -4807,19 +4807,19 @@
         <v>37126</v>
       </c>
       <c r="E70" s="5" t="n">
-        <v>24897</v>
+        <v>24938</v>
       </c>
       <c r="F70" s="5" t="n">
-        <v>52683</v>
+        <v>54549</v>
       </c>
       <c r="G70" s="6" t="n">
         <v>0.178413378973775</v>
       </c>
       <c r="H70" s="6" t="n">
-        <v>0.1196451915848109</v>
+        <v>0.1198422481210095</v>
       </c>
       <c r="I70" s="6" t="n">
-        <v>0.2531747567075256</v>
+        <v>0.2621449853707355</v>
       </c>
       <c r="J70" s="5" t="n">
         <v>62</v>
@@ -4828,19 +4828,19 @@
         <v>51552</v>
       </c>
       <c r="L70" s="5" t="n">
-        <v>39881</v>
+        <v>40198</v>
       </c>
       <c r="M70" s="5" t="n">
-        <v>65544</v>
+        <v>65185</v>
       </c>
       <c r="N70" s="6" t="n">
         <v>0.2889170188746815</v>
       </c>
       <c r="O70" s="6" t="n">
-        <v>0.2235099733073542</v>
+        <v>0.2252868353668406</v>
       </c>
       <c r="P70" s="6" t="n">
-        <v>0.3673375987630051</v>
+        <v>0.3653247881256326</v>
       </c>
       <c r="Q70" s="5" t="n">
         <v>88</v>
@@ -4849,19 +4849,19 @@
         <v>88677</v>
       </c>
       <c r="S70" s="5" t="n">
-        <v>70987</v>
+        <v>71210</v>
       </c>
       <c r="T70" s="5" t="n">
-        <v>108149</v>
+        <v>110606</v>
       </c>
       <c r="U70" s="6" t="n">
-        <v>0.2294257305250811</v>
+        <v>0.2294257305250812</v>
       </c>
       <c r="V70" s="6" t="n">
-        <v>0.1836578389753313</v>
+        <v>0.1842352904945904</v>
       </c>
       <c r="W70" s="6" t="n">
-        <v>0.2798025389750604</v>
+        <v>0.2861600735713246</v>
       </c>
     </row>
     <row r="71">
@@ -5047,19 +5047,19 @@
         <v>36017</v>
       </c>
       <c r="E74" s="5" t="n">
-        <v>27814</v>
+        <v>27420</v>
       </c>
       <c r="F74" s="5" t="n">
-        <v>46149</v>
+        <v>46031</v>
       </c>
       <c r="G74" s="6" t="n">
         <v>0.2678229292396856</v>
       </c>
       <c r="H74" s="6" t="n">
-        <v>0.2068267812185563</v>
+        <v>0.2038925083106325</v>
       </c>
       <c r="I74" s="6" t="n">
-        <v>0.3431640678587524</v>
+        <v>0.3422869766992839</v>
       </c>
       <c r="J74" s="5" t="n">
         <v>92</v>
@@ -5068,19 +5068,19 @@
         <v>45175</v>
       </c>
       <c r="L74" s="5" t="n">
-        <v>37304</v>
+        <v>38175</v>
       </c>
       <c r="M74" s="5" t="n">
-        <v>53306</v>
+        <v>53293</v>
       </c>
       <c r="N74" s="6" t="n">
         <v>0.383550621526359</v>
       </c>
       <c r="O74" s="6" t="n">
-        <v>0.3167188264606474</v>
+        <v>0.3241116677752465</v>
       </c>
       <c r="P74" s="6" t="n">
-        <v>0.452584008059644</v>
+        <v>0.4524679970305414</v>
       </c>
       <c r="Q74" s="5" t="n">
         <v>140</v>
@@ -5089,19 +5089,19 @@
         <v>81192</v>
       </c>
       <c r="S74" s="5" t="n">
-        <v>69423</v>
+        <v>69765</v>
       </c>
       <c r="T74" s="5" t="n">
-        <v>94353</v>
+        <v>92650</v>
       </c>
       <c r="U74" s="6" t="n">
         <v>0.321856491664658</v>
       </c>
       <c r="V74" s="6" t="n">
-        <v>0.2752021075304213</v>
+        <v>0.2765572707769755</v>
       </c>
       <c r="W74" s="6" t="n">
-        <v>0.3740276198958999</v>
+        <v>0.3672771668002005</v>
       </c>
     </row>
     <row r="75">
@@ -5121,7 +5121,7 @@
         <v>0</v>
       </c>
       <c r="F75" s="5" t="n">
-        <v>7768</v>
+        <v>7601</v>
       </c>
       <c r="G75" s="6" t="n">
         <v>0.01023143967145832</v>
@@ -5130,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="I75" s="6" t="n">
-        <v>0.05776631803631924</v>
+        <v>0.05651932020653776</v>
       </c>
       <c r="J75" s="5" t="n">
         <v>0</v>
@@ -5155,16 +5155,16 @@
         <v>0</v>
       </c>
       <c r="T75" s="5" t="n">
-        <v>5600</v>
+        <v>7814</v>
       </c>
       <c r="U75" s="6" t="n">
-        <v>0.00545435370990973</v>
+        <v>0.005454353709909729</v>
       </c>
       <c r="V75" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W75" s="6" t="n">
-        <v>0.02219780919571404</v>
+        <v>0.03097750998002361</v>
       </c>
     </row>
     <row r="76">
@@ -5466,16 +5466,16 @@
         <v>738</v>
       </c>
       <c r="F82" s="5" t="n">
-        <v>9542</v>
+        <v>10081</v>
       </c>
       <c r="G82" s="6" t="n">
         <v>0.02569279233868089</v>
       </c>
       <c r="H82" s="6" t="n">
-        <v>0.005486986827253929</v>
+        <v>0.0054911378247162</v>
       </c>
       <c r="I82" s="6" t="n">
-        <v>0.07095766046638256</v>
+        <v>0.07496158312703936</v>
       </c>
       <c r="J82" s="5" t="n">
         <v>5</v>
@@ -5484,19 +5484,19 @@
         <v>2706</v>
       </c>
       <c r="L82" s="5" t="n">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="M82" s="5" t="n">
-        <v>6633</v>
+        <v>6275</v>
       </c>
       <c r="N82" s="6" t="n">
-        <v>0.02297693657422243</v>
+        <v>0.02297693657422242</v>
       </c>
       <c r="O82" s="6" t="n">
-        <v>0.007338393649969537</v>
+        <v>0.00732245957285224</v>
       </c>
       <c r="P82" s="6" t="n">
-        <v>0.05631361813772122</v>
+        <v>0.05327673318878545</v>
       </c>
       <c r="Q82" s="5" t="n">
         <v>8</v>
@@ -5505,19 +5505,19 @@
         <v>6161</v>
       </c>
       <c r="S82" s="5" t="n">
-        <v>2646</v>
+        <v>2834</v>
       </c>
       <c r="T82" s="5" t="n">
-        <v>12145</v>
+        <v>13261</v>
       </c>
       <c r="U82" s="6" t="n">
         <v>0.02442475217399348</v>
       </c>
       <c r="V82" s="6" t="n">
-        <v>0.0104885929221883</v>
+        <v>0.01123243068725833</v>
       </c>
       <c r="W82" s="6" t="n">
-        <v>0.04814596245807555</v>
+        <v>0.05256643774571356</v>
       </c>
     </row>
     <row r="83">
@@ -5581,19 +5581,19 @@
         <v>4908</v>
       </c>
       <c r="E84" s="5" t="n">
-        <v>1704</v>
+        <v>1575</v>
       </c>
       <c r="F84" s="5" t="n">
-        <v>10142</v>
+        <v>10081</v>
       </c>
       <c r="G84" s="6" t="n">
-        <v>0.03649783850678153</v>
+        <v>0.03649783850678152</v>
       </c>
       <c r="H84" s="6" t="n">
-        <v>0.01266931300082427</v>
+        <v>0.0117104465497742</v>
       </c>
       <c r="I84" s="6" t="n">
-        <v>0.07541318990494963</v>
+        <v>0.07496124554378415</v>
       </c>
       <c r="J84" s="5" t="n">
         <v>4</v>
@@ -5602,19 +5602,19 @@
         <v>2222</v>
       </c>
       <c r="L84" s="5" t="n">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="M84" s="5" t="n">
-        <v>5805</v>
+        <v>5639</v>
       </c>
       <c r="N84" s="6" t="n">
         <v>0.01886490646259466</v>
       </c>
       <c r="O84" s="6" t="n">
-        <v>0.004105751906264908</v>
+        <v>0.003949393846830702</v>
       </c>
       <c r="P84" s="6" t="n">
-        <v>0.04928517749222631</v>
+        <v>0.04787267407132399</v>
       </c>
       <c r="Q84" s="5" t="n">
         <v>10</v>
@@ -5623,19 +5623,19 @@
         <v>7130</v>
       </c>
       <c r="S84" s="5" t="n">
-        <v>3448</v>
+        <v>3568</v>
       </c>
       <c r="T84" s="5" t="n">
-        <v>13666</v>
+        <v>14171</v>
       </c>
       <c r="U84" s="6" t="n">
-        <v>0.02826497638433701</v>
+        <v>0.028264976384337</v>
       </c>
       <c r="V84" s="6" t="n">
-        <v>0.01366651349570339</v>
+        <v>0.01414314141577869</v>
       </c>
       <c r="W84" s="6" t="n">
-        <v>0.05417502836009026</v>
+        <v>0.05617695933169766</v>
       </c>
     </row>
     <row r="85">
@@ -5652,19 +5652,19 @@
         <v>67194</v>
       </c>
       <c r="E85" s="5" t="n">
-        <v>56826</v>
+        <v>56554</v>
       </c>
       <c r="F85" s="5" t="n">
-        <v>78259</v>
+        <v>77530</v>
       </c>
       <c r="G85" s="6" t="n">
         <v>0.4996514699257516</v>
       </c>
       <c r="H85" s="6" t="n">
-        <v>0.4225548497913985</v>
+        <v>0.4205322691925616</v>
       </c>
       <c r="I85" s="6" t="n">
-        <v>0.5819355889938443</v>
+        <v>0.576509215272954</v>
       </c>
       <c r="J85" s="5" t="n">
         <v>87</v>
@@ -5673,19 +5673,19 @@
         <v>44821</v>
       </c>
       <c r="L85" s="5" t="n">
-        <v>37231</v>
+        <v>37464</v>
       </c>
       <c r="M85" s="5" t="n">
-        <v>52997</v>
+        <v>53287</v>
       </c>
       <c r="N85" s="6" t="n">
-        <v>0.3805402206343266</v>
+        <v>0.3805402206343265</v>
       </c>
       <c r="O85" s="6" t="n">
-        <v>0.3160981414921565</v>
+        <v>0.3180790904270616</v>
       </c>
       <c r="P85" s="6" t="n">
-        <v>0.4499571412271407</v>
+        <v>0.4524175119252818</v>
       </c>
       <c r="Q85" s="5" t="n">
         <v>172</v>
@@ -5694,19 +5694,19 @@
         <v>112014</v>
       </c>
       <c r="S85" s="5" t="n">
-        <v>97419</v>
+        <v>99359</v>
       </c>
       <c r="T85" s="5" t="n">
-        <v>124608</v>
+        <v>126367</v>
       </c>
       <c r="U85" s="6" t="n">
         <v>0.4440381158794114</v>
       </c>
       <c r="V85" s="6" t="n">
-        <v>0.3861797616988772</v>
+        <v>0.3938691335456321</v>
       </c>
       <c r="W85" s="6" t="n">
-        <v>0.4939605530579803</v>
+        <v>0.5009326649076428</v>
       </c>
     </row>
     <row r="86">
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F86" s="5" t="n">
-        <v>3468</v>
+        <v>3072</v>
       </c>
       <c r="G86" s="6" t="n">
         <v>0.005567335135042441</v>
@@ -5735,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="I86" s="6" t="n">
-        <v>0.02578751180481129</v>
+        <v>0.02284212761220223</v>
       </c>
       <c r="J86" s="5" t="n">
         <v>1</v>
@@ -5747,16 +5747,16 @@
         <v>0</v>
       </c>
       <c r="M86" s="5" t="n">
-        <v>2226</v>
+        <v>2220</v>
       </c>
       <c r="N86" s="6" t="n">
-        <v>0.003735425252003381</v>
+        <v>0.00373542525200338</v>
       </c>
       <c r="O86" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P86" s="6" t="n">
-        <v>0.01890150971910989</v>
+        <v>0.01884625154680126</v>
       </c>
       <c r="Q86" s="5" t="n">
         <v>2</v>
@@ -5768,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="T86" s="5" t="n">
-        <v>4525</v>
+        <v>4497</v>
       </c>
       <c r="U86" s="6" t="n">
         <v>0.004712011615958378</v>
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="W86" s="6" t="n">
-        <v>0.01793935749124831</v>
+        <v>0.01782605052437051</v>
       </c>
     </row>
     <row r="87">
@@ -5794,19 +5794,19 @@
         <v>20782</v>
       </c>
       <c r="E87" s="5" t="n">
-        <v>14001</v>
+        <v>13488</v>
       </c>
       <c r="F87" s="5" t="n">
-        <v>29186</v>
+        <v>29495</v>
       </c>
       <c r="G87" s="6" t="n">
         <v>0.1545361951825997</v>
       </c>
       <c r="H87" s="6" t="n">
-        <v>0.1041102624302657</v>
+        <v>0.1002989095880364</v>
       </c>
       <c r="I87" s="6" t="n">
-        <v>0.2170301285527265</v>
+        <v>0.2193215159623787</v>
       </c>
       <c r="J87" s="5" t="n">
         <v>46</v>
@@ -5815,19 +5815,19 @@
         <v>22418</v>
       </c>
       <c r="L87" s="5" t="n">
-        <v>16642</v>
+        <v>16119</v>
       </c>
       <c r="M87" s="5" t="n">
-        <v>28995</v>
+        <v>28788</v>
       </c>
       <c r="N87" s="6" t="n">
         <v>0.190331889550494</v>
       </c>
       <c r="O87" s="6" t="n">
-        <v>0.1412952696364801</v>
+        <v>0.1368516611437411</v>
       </c>
       <c r="P87" s="6" t="n">
-        <v>0.246176985147024</v>
+        <v>0.2444214725607659</v>
       </c>
       <c r="Q87" s="5" t="n">
         <v>70</v>
@@ -5836,19 +5836,19 @@
         <v>43200</v>
       </c>
       <c r="S87" s="5" t="n">
-        <v>33813</v>
+        <v>34976</v>
       </c>
       <c r="T87" s="5" t="n">
-        <v>53536</v>
+        <v>54658</v>
       </c>
       <c r="U87" s="6" t="n">
         <v>0.1712492985717319</v>
       </c>
       <c r="V87" s="6" t="n">
-        <v>0.134039793965988</v>
+        <v>0.1386503151885714</v>
       </c>
       <c r="W87" s="6" t="n">
-        <v>0.2122232775338224</v>
+        <v>0.2166694987043803</v>
       </c>
     </row>
     <row r="88">
@@ -6034,19 +6034,19 @@
         <v>16501</v>
       </c>
       <c r="E91" s="5" t="n">
-        <v>9902</v>
+        <v>9827</v>
       </c>
       <c r="F91" s="5" t="n">
-        <v>24392</v>
+        <v>23199</v>
       </c>
       <c r="G91" s="6" t="n">
         <v>0.1226512713756487</v>
       </c>
       <c r="H91" s="6" t="n">
-        <v>0.07360204837335849</v>
+        <v>0.07304217597650715</v>
       </c>
       <c r="I91" s="6" t="n">
-        <v>0.1813034783354567</v>
+        <v>0.1724360461002472</v>
       </c>
       <c r="J91" s="5" t="n">
         <v>25</v>
@@ -6055,19 +6055,19 @@
         <v>16144</v>
       </c>
       <c r="L91" s="5" t="n">
-        <v>10683</v>
+        <v>11341</v>
       </c>
       <c r="M91" s="5" t="n">
-        <v>23018</v>
+        <v>22975</v>
       </c>
       <c r="N91" s="6" t="n">
         <v>0.186767828568382</v>
       </c>
       <c r="O91" s="6" t="n">
-        <v>0.1235964753262591</v>
+        <v>0.1312077296824241</v>
       </c>
       <c r="P91" s="6" t="n">
-        <v>0.2662931892177587</v>
+        <v>0.2657956030487931</v>
       </c>
       <c r="Q91" s="5" t="n">
         <v>44</v>
@@ -6076,19 +6076,19 @@
         <v>32645</v>
       </c>
       <c r="S91" s="5" t="n">
-        <v>24244</v>
+        <v>24741</v>
       </c>
       <c r="T91" s="5" t="n">
-        <v>42791</v>
+        <v>42933</v>
       </c>
       <c r="U91" s="6" t="n">
         <v>0.1477315244972206</v>
       </c>
       <c r="V91" s="6" t="n">
-        <v>0.1097169276891765</v>
+        <v>0.111962143523228</v>
       </c>
       <c r="W91" s="6" t="n">
-        <v>0.1936480037277998</v>
+        <v>0.1942889453229652</v>
       </c>
     </row>
     <row r="92">
@@ -6108,16 +6108,16 @@
         <v>0</v>
       </c>
       <c r="F92" s="5" t="n">
-        <v>4677</v>
+        <v>4421</v>
       </c>
       <c r="G92" s="6" t="n">
-        <v>0.006540502143736042</v>
+        <v>0.006540502143736043</v>
       </c>
       <c r="H92" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I92" s="6" t="n">
-        <v>0.03476186578510262</v>
+        <v>0.03285769905440147</v>
       </c>
       <c r="J92" s="5" t="n">
         <v>1</v>
@@ -6129,16 +6129,16 @@
         <v>0</v>
       </c>
       <c r="M92" s="5" t="n">
-        <v>3179</v>
+        <v>2925</v>
       </c>
       <c r="N92" s="6" t="n">
-        <v>0.007242205723152769</v>
+        <v>0.00724220572315277</v>
       </c>
       <c r="O92" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P92" s="6" t="n">
-        <v>0.03677689896387065</v>
+        <v>0.03383898807396096</v>
       </c>
       <c r="Q92" s="5" t="n">
         <v>2</v>
@@ -6150,16 +6150,16 @@
         <v>0</v>
       </c>
       <c r="T92" s="5" t="n">
-        <v>5869</v>
+        <v>4896</v>
       </c>
       <c r="U92" s="6" t="n">
-        <v>0.006814985119095787</v>
+        <v>0.006814985119095786</v>
       </c>
       <c r="V92" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W92" s="6" t="n">
-        <v>0.0265581828939881</v>
+        <v>0.02215481733008387</v>
       </c>
     </row>
     <row r="93">
@@ -6273,16 +6273,16 @@
         <v>0</v>
       </c>
       <c r="F95" s="5" t="n">
-        <v>4619</v>
+        <v>4899</v>
       </c>
       <c r="G95" s="6" t="n">
-        <v>0.006760352749842563</v>
+        <v>0.006760352749842564</v>
       </c>
       <c r="H95" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I95" s="6" t="n">
-        <v>0.03433169854590153</v>
+        <v>0.03641414827391543</v>
       </c>
       <c r="J95" s="5" t="n">
         <v>0</v>
@@ -6307,16 +6307,16 @@
         <v>0</v>
       </c>
       <c r="T95" s="5" t="n">
-        <v>4411</v>
+        <v>5220</v>
       </c>
       <c r="U95" s="6" t="n">
-        <v>0.004115928819725766</v>
+        <v>0.004115928819725765</v>
       </c>
       <c r="V95" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W95" s="6" t="n">
-        <v>0.01995992408861757</v>
+        <v>0.02362200242853276</v>
       </c>
     </row>
     <row r="96">
@@ -6396,16 +6396,16 @@
         <v>0</v>
       </c>
       <c r="M97" s="5" t="n">
-        <v>3136</v>
+        <v>3401</v>
       </c>
       <c r="N97" s="6" t="n">
-        <v>0.007242205723152769</v>
+        <v>0.00724220572315277</v>
       </c>
       <c r="O97" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P97" s="6" t="n">
-        <v>0.03627930166098642</v>
+        <v>0.03934778757000038</v>
       </c>
       <c r="Q97" s="5" t="n">
         <v>1</v>
@@ -6417,16 +6417,16 @@
         <v>0</v>
       </c>
       <c r="T97" s="5" t="n">
-        <v>3585</v>
+        <v>3160</v>
       </c>
       <c r="U97" s="6" t="n">
-        <v>0.002832908700153261</v>
+        <v>0.00283290870015326</v>
       </c>
       <c r="V97" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W97" s="6" t="n">
-        <v>0.01622443163430617</v>
+        <v>0.01430231762313542</v>
       </c>
     </row>
     <row r="98">
@@ -6537,19 +6537,19 @@
         <v>3019</v>
       </c>
       <c r="E100" s="5" t="n">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F100" s="5" t="n">
-        <v>8107</v>
+        <v>7765</v>
       </c>
       <c r="G100" s="6" t="n">
-        <v>0.0224432511795319</v>
+        <v>0.02244325117953191</v>
       </c>
       <c r="H100" s="6" t="n">
-        <v>0.005360187446780773</v>
+        <v>0.005346674963310927</v>
       </c>
       <c r="I100" s="6" t="n">
-        <v>0.06026043547996698</v>
+        <v>0.05771609078836373</v>
       </c>
       <c r="J100" s="5" t="n">
         <v>0</v>
@@ -6571,19 +6571,19 @@
         <v>3019</v>
       </c>
       <c r="S100" s="5" t="n">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="T100" s="5" t="n">
-        <v>9242</v>
+        <v>8892</v>
       </c>
       <c r="U100" s="6" t="n">
         <v>0.01366420181851175</v>
       </c>
       <c r="V100" s="6" t="n">
-        <v>0.003282662554444548</v>
+        <v>0.003295601028065284</v>
       </c>
       <c r="W100" s="6" t="n">
-        <v>0.04182371836118843</v>
+        <v>0.04024226146128384</v>
       </c>
     </row>
     <row r="101">
@@ -6647,19 +6647,19 @@
         <v>92420</v>
       </c>
       <c r="E102" s="5" t="n">
-        <v>80338</v>
+        <v>82795</v>
       </c>
       <c r="F102" s="5" t="n">
-        <v>101447</v>
+        <v>101866</v>
       </c>
       <c r="G102" s="6" t="n">
-        <v>0.6869527916404443</v>
+        <v>0.6869527916404445</v>
       </c>
       <c r="H102" s="6" t="n">
-        <v>0.5971480952704297</v>
+        <v>0.6154088691266959</v>
       </c>
       <c r="I102" s="6" t="n">
-        <v>0.7540505046687388</v>
+        <v>0.7571670191656167</v>
       </c>
       <c r="J102" s="5" t="n">
         <v>52</v>
@@ -6668,19 +6668,19 @@
         <v>38727</v>
       </c>
       <c r="L102" s="5" t="n">
-        <v>31019</v>
+        <v>30867</v>
       </c>
       <c r="M102" s="5" t="n">
-        <v>46773</v>
+        <v>46862</v>
       </c>
       <c r="N102" s="6" t="n">
-        <v>0.448038471269823</v>
+        <v>0.4480384712698232</v>
       </c>
       <c r="O102" s="6" t="n">
-        <v>0.3588651881598516</v>
+        <v>0.3571018368316735</v>
       </c>
       <c r="P102" s="6" t="n">
-        <v>0.5411234007588559</v>
+        <v>0.542153976279746</v>
       </c>
       <c r="Q102" s="5" t="n">
         <v>156</v>
@@ -6689,19 +6689,19 @@
         <v>131147</v>
       </c>
       <c r="S102" s="5" t="n">
-        <v>118098</v>
+        <v>117508</v>
       </c>
       <c r="T102" s="5" t="n">
-        <v>143551</v>
+        <v>142680</v>
       </c>
       <c r="U102" s="6" t="n">
-        <v>0.5934974987860332</v>
+        <v>0.5934974987860331</v>
       </c>
       <c r="V102" s="6" t="n">
-        <v>0.5344463070101885</v>
+        <v>0.5317768182057224</v>
       </c>
       <c r="W102" s="6" t="n">
-        <v>0.6496335091496923</v>
+        <v>0.6456886936189625</v>
       </c>
     </row>
     <row r="103">
@@ -6721,16 +6721,16 @@
         <v>0</v>
       </c>
       <c r="F103" s="5" t="n">
-        <v>4055</v>
+        <v>4119</v>
       </c>
       <c r="G103" s="6" t="n">
-        <v>0.006000130251585441</v>
+        <v>0.006000130251585443</v>
       </c>
       <c r="H103" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I103" s="6" t="n">
-        <v>0.0301395321734186</v>
+        <v>0.03061755009441671</v>
       </c>
       <c r="J103" s="5" t="n">
         <v>0</v>
@@ -6755,7 +6755,7 @@
         <v>0</v>
       </c>
       <c r="T103" s="5" t="n">
-        <v>4041</v>
+        <v>4126</v>
       </c>
       <c r="U103" s="6" t="n">
         <v>0.003653079941011075</v>
@@ -6764,7 +6764,7 @@
         <v>0</v>
       </c>
       <c r="W103" s="6" t="n">
-        <v>0.01828677351588668</v>
+        <v>0.01866992323715944</v>
       </c>
     </row>
     <row r="104">
@@ -6781,19 +6781,19 @@
         <v>19999</v>
       </c>
       <c r="E104" s="5" t="n">
-        <v>13174</v>
+        <v>12791</v>
       </c>
       <c r="F104" s="5" t="n">
-        <v>29395</v>
+        <v>28014</v>
       </c>
       <c r="G104" s="6" t="n">
         <v>0.1486517006592109</v>
       </c>
       <c r="H104" s="6" t="n">
-        <v>0.09791998183829806</v>
+        <v>0.09507468071202327</v>
       </c>
       <c r="I104" s="6" t="n">
-        <v>0.218492038261701</v>
+        <v>0.208227461833015</v>
       </c>
       <c r="J104" s="5" t="n">
         <v>48</v>
@@ -6802,19 +6802,19 @@
         <v>30314</v>
       </c>
       <c r="L104" s="5" t="n">
-        <v>23543</v>
+        <v>23841</v>
       </c>
       <c r="M104" s="5" t="n">
-        <v>37699</v>
+        <v>38309</v>
       </c>
       <c r="N104" s="6" t="n">
         <v>0.3507092887154891</v>
       </c>
       <c r="O104" s="6" t="n">
-        <v>0.2723736626129822</v>
+        <v>0.2758193085369047</v>
       </c>
       <c r="P104" s="6" t="n">
-        <v>0.4361445801995834</v>
+        <v>0.4432057116819612</v>
       </c>
       <c r="Q104" s="5" t="n">
         <v>71</v>
@@ -6823,19 +6823,19 @@
         <v>50313</v>
       </c>
       <c r="S104" s="5" t="n">
-        <v>39926</v>
+        <v>39833</v>
       </c>
       <c r="T104" s="5" t="n">
-        <v>61783</v>
+        <v>61352</v>
       </c>
       <c r="U104" s="6" t="n">
-        <v>0.2276898723182487</v>
+        <v>0.2276898723182486</v>
       </c>
       <c r="V104" s="6" t="n">
-        <v>0.1806844298920795</v>
+        <v>0.1802611338712388</v>
       </c>
       <c r="W104" s="6" t="n">
-        <v>0.2795930066108849</v>
+        <v>0.2776455532253805</v>
       </c>
     </row>
     <row r="105">
@@ -7021,19 +7021,19 @@
         <v>7589</v>
       </c>
       <c r="E108" s="5" t="n">
-        <v>2235</v>
+        <v>2300</v>
       </c>
       <c r="F108" s="5" t="n">
-        <v>19211</v>
+        <v>20462</v>
       </c>
       <c r="G108" s="6" t="n">
         <v>0.01984731074795505</v>
       </c>
       <c r="H108" s="6" t="n">
-        <v>0.005845915787873103</v>
+        <v>0.006014682166282348</v>
       </c>
       <c r="I108" s="6" t="n">
-        <v>0.05024111878814382</v>
+        <v>0.05351300129477075</v>
       </c>
       <c r="J108" s="5" t="n">
         <v>19</v>
@@ -7042,19 +7042,19 @@
         <v>15007</v>
       </c>
       <c r="L108" s="5" t="n">
-        <v>9512</v>
+        <v>9176</v>
       </c>
       <c r="M108" s="5" t="n">
-        <v>23256</v>
+        <v>23164</v>
       </c>
       <c r="N108" s="6" t="n">
-        <v>0.04209943057864835</v>
+        <v>0.04209943057864834</v>
       </c>
       <c r="O108" s="6" t="n">
-        <v>0.02668625319558959</v>
+        <v>0.0257412764293894</v>
       </c>
       <c r="P108" s="6" t="n">
-        <v>0.06524199765970325</v>
+        <v>0.06498504458637312</v>
       </c>
       <c r="Q108" s="5" t="n">
         <v>24</v>
@@ -7063,19 +7063,19 @@
         <v>22596</v>
       </c>
       <c r="S108" s="5" t="n">
-        <v>14579</v>
+        <v>14942</v>
       </c>
       <c r="T108" s="5" t="n">
-        <v>37230</v>
+        <v>35475</v>
       </c>
       <c r="U108" s="6" t="n">
         <v>0.030582986040729</v>
       </c>
       <c r="V108" s="6" t="n">
-        <v>0.01973184427329566</v>
+        <v>0.02022308975821937</v>
       </c>
       <c r="W108" s="6" t="n">
-        <v>0.05039085335324548</v>
+        <v>0.04801474772759881</v>
       </c>
     </row>
     <row r="109">
@@ -7095,7 +7095,7 @@
         <v>0</v>
       </c>
       <c r="F109" s="5" t="n">
-        <v>3729</v>
+        <v>3973</v>
       </c>
       <c r="G109" s="6" t="n">
         <v>0.002366602940259183</v>
@@ -7104,7 +7104,7 @@
         <v>0</v>
       </c>
       <c r="I109" s="6" t="n">
-        <v>0.009752031481862329</v>
+        <v>0.01039148080406008</v>
       </c>
       <c r="J109" s="5" t="n">
         <v>8</v>
@@ -7113,19 +7113,19 @@
         <v>6383</v>
       </c>
       <c r="L109" s="5" t="n">
-        <v>2816</v>
+        <v>2846</v>
       </c>
       <c r="M109" s="5" t="n">
-        <v>12644</v>
+        <v>13458</v>
       </c>
       <c r="N109" s="6" t="n">
         <v>0.01790588870587077</v>
       </c>
       <c r="O109" s="6" t="n">
-        <v>0.007901192431686469</v>
+        <v>0.007984733212599793</v>
       </c>
       <c r="P109" s="6" t="n">
-        <v>0.03547187877626868</v>
+        <v>0.03775559718136735</v>
       </c>
       <c r="Q109" s="5" t="n">
         <v>9</v>
@@ -7134,19 +7134,19 @@
         <v>7288</v>
       </c>
       <c r="S109" s="5" t="n">
-        <v>3746</v>
+        <v>3586</v>
       </c>
       <c r="T109" s="5" t="n">
-        <v>14184</v>
+        <v>14465</v>
       </c>
       <c r="U109" s="6" t="n">
-        <v>0.009863629180029913</v>
+        <v>0.009863629180029912</v>
       </c>
       <c r="V109" s="6" t="n">
-        <v>0.005069964459743229</v>
+        <v>0.004853360145501751</v>
       </c>
       <c r="W109" s="6" t="n">
-        <v>0.01919846354201407</v>
+        <v>0.01957767431782908</v>
       </c>
     </row>
     <row r="110">
@@ -7226,7 +7226,7 @@
         <v>0</v>
       </c>
       <c r="M111" s="5" t="n">
-        <v>3837</v>
+        <v>4136</v>
       </c>
       <c r="N111" s="6" t="n">
         <v>0.001940659333646336</v>
@@ -7235,7 +7235,7 @@
         <v>0</v>
       </c>
       <c r="P111" s="6" t="n">
-        <v>0.01076395028538115</v>
+        <v>0.01160232709044784</v>
       </c>
       <c r="Q111" s="5" t="n">
         <v>1</v>
@@ -7247,7 +7247,7 @@
         <v>0</v>
       </c>
       <c r="T111" s="5" t="n">
-        <v>3469</v>
+        <v>3312</v>
       </c>
       <c r="U111" s="6" t="n">
         <v>0.0009362833122613564</v>
@@ -7256,7 +7256,7 @@
         <v>0</v>
       </c>
       <c r="W111" s="6" t="n">
-        <v>0.004695105711805997</v>
+        <v>0.00448335219321429</v>
       </c>
     </row>
     <row r="112">
@@ -7276,7 +7276,7 @@
         <v>0</v>
       </c>
       <c r="F112" s="5" t="n">
-        <v>6363</v>
+        <v>7383</v>
       </c>
       <c r="G112" s="6" t="n">
         <v>0.0029965133305453</v>
@@ -7285,7 +7285,7 @@
         <v>0</v>
       </c>
       <c r="I112" s="6" t="n">
-        <v>0.01664000985288537</v>
+        <v>0.01930678088320079</v>
       </c>
       <c r="J112" s="5" t="n">
         <v>0</v>
@@ -7310,7 +7310,7 @@
         <v>0</v>
       </c>
       <c r="T112" s="5" t="n">
-        <v>6543</v>
+        <v>7339</v>
       </c>
       <c r="U112" s="6" t="n">
         <v>0.00155082661071962</v>
@@ -7319,7 +7319,7 @@
         <v>0</v>
       </c>
       <c r="W112" s="6" t="n">
-        <v>0.008855699343924729</v>
+        <v>0.009933547381507854</v>
       </c>
     </row>
     <row r="113">
@@ -7339,16 +7339,16 @@
         <v>0</v>
       </c>
       <c r="F113" s="5" t="n">
-        <v>13064</v>
+        <v>14651</v>
       </c>
       <c r="G113" s="6" t="n">
-        <v>0.006896226894093122</v>
+        <v>0.006896226894093121</v>
       </c>
       <c r="H113" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I113" s="6" t="n">
-        <v>0.03416595970962954</v>
+        <v>0.03831466518281634</v>
       </c>
       <c r="J113" s="5" t="n">
         <v>0</v>
@@ -7373,7 +7373,7 @@
         <v>0</v>
       </c>
       <c r="T113" s="5" t="n">
-        <v>12014</v>
+        <v>15667</v>
       </c>
       <c r="U113" s="6" t="n">
         <v>0.00356909881624778</v>
@@ -7382,7 +7382,7 @@
         <v>0</v>
       </c>
       <c r="W113" s="6" t="n">
-        <v>0.0162613207711048</v>
+        <v>0.02120564786261196</v>
       </c>
     </row>
     <row r="114">
@@ -7399,19 +7399,19 @@
         <v>10440</v>
       </c>
       <c r="E114" s="5" t="n">
-        <v>4780</v>
+        <v>4293</v>
       </c>
       <c r="F114" s="5" t="n">
-        <v>21547</v>
+        <v>22193</v>
       </c>
       <c r="G114" s="6" t="n">
         <v>0.02730317881097391</v>
       </c>
       <c r="H114" s="6" t="n">
-        <v>0.0125017717662541</v>
+        <v>0.01122606188951644</v>
       </c>
       <c r="I114" s="6" t="n">
-        <v>0.05635099469687702</v>
+        <v>0.05803993514560455</v>
       </c>
       <c r="J114" s="5" t="n">
         <v>13</v>
@@ -7420,19 +7420,19 @@
         <v>9166</v>
       </c>
       <c r="L114" s="5" t="n">
-        <v>4936</v>
+        <v>4773</v>
       </c>
       <c r="M114" s="5" t="n">
-        <v>15103</v>
+        <v>14417</v>
       </c>
       <c r="N114" s="6" t="n">
         <v>0.02571460746577538</v>
       </c>
       <c r="O114" s="6" t="n">
-        <v>0.01384823908892214</v>
+        <v>0.01339062042266473</v>
       </c>
       <c r="P114" s="6" t="n">
-        <v>0.04237036482838653</v>
+        <v>0.04044414944467654</v>
       </c>
       <c r="Q114" s="5" t="n">
         <v>20</v>
@@ -7441,19 +7441,19 @@
         <v>19606</v>
       </c>
       <c r="S114" s="5" t="n">
-        <v>12190</v>
+        <v>12597</v>
       </c>
       <c r="T114" s="5" t="n">
-        <v>32887</v>
+        <v>31939</v>
       </c>
       <c r="U114" s="6" t="n">
         <v>0.02653676256518627</v>
       </c>
       <c r="V114" s="6" t="n">
-        <v>0.01649888356555555</v>
+        <v>0.01704932546937277</v>
       </c>
       <c r="W114" s="6" t="n">
-        <v>0.04451150896863183</v>
+        <v>0.04322881372087616</v>
       </c>
     </row>
     <row r="115">
@@ -7470,19 +7470,19 @@
         <v>3551</v>
       </c>
       <c r="E115" s="5" t="n">
-        <v>0</v>
+        <v>1114</v>
       </c>
       <c r="F115" s="5" t="n">
-        <v>9671</v>
+        <v>9614</v>
       </c>
       <c r="G115" s="6" t="n">
-        <v>0.00928701022659105</v>
+        <v>0.009287010226591048</v>
       </c>
       <c r="H115" s="6" t="n">
-        <v>0</v>
+        <v>0.002914056193199074</v>
       </c>
       <c r="I115" s="6" t="n">
-        <v>0.02529045275771427</v>
+        <v>0.02514309719579077</v>
       </c>
       <c r="J115" s="5" t="n">
         <v>2</v>
@@ -7494,7 +7494,7 @@
         <v>0</v>
       </c>
       <c r="M115" s="5" t="n">
-        <v>4957</v>
+        <v>4855</v>
       </c>
       <c r="N115" s="6" t="n">
         <v>0.003914391505843323</v>
@@ -7503,7 +7503,7 @@
         <v>0</v>
       </c>
       <c r="P115" s="6" t="n">
-        <v>0.01390535313068102</v>
+        <v>0.0136203139844349</v>
       </c>
       <c r="Q115" s="5" t="n">
         <v>5</v>
@@ -7512,19 +7512,19 @@
         <v>4946</v>
       </c>
       <c r="S115" s="5" t="n">
-        <v>1815</v>
+        <v>1843</v>
       </c>
       <c r="T115" s="5" t="n">
-        <v>11441</v>
+        <v>12052</v>
       </c>
       <c r="U115" s="6" t="n">
-        <v>0.006694956503319817</v>
+        <v>0.006694956503319816</v>
       </c>
       <c r="V115" s="6" t="n">
-        <v>0.002456504741166518</v>
+        <v>0.002494323487447611</v>
       </c>
       <c r="W115" s="6" t="n">
-        <v>0.0154858206534551</v>
+        <v>0.01631238841769748</v>
       </c>
     </row>
     <row r="116">
@@ -7541,19 +7541,19 @@
         <v>29831</v>
       </c>
       <c r="E116" s="5" t="n">
-        <v>19893</v>
+        <v>18833</v>
       </c>
       <c r="F116" s="5" t="n">
-        <v>42849</v>
+        <v>42687</v>
       </c>
       <c r="G116" s="6" t="n">
-        <v>0.07801308804905528</v>
+        <v>0.07801308804905527</v>
       </c>
       <c r="H116" s="6" t="n">
-        <v>0.0520249308749138</v>
+        <v>0.04925112923528004</v>
       </c>
       <c r="I116" s="6" t="n">
-        <v>0.1120598799349106</v>
+        <v>0.1116346943693183</v>
       </c>
       <c r="J116" s="5" t="n">
         <v>28</v>
@@ -7562,19 +7562,19 @@
         <v>24330</v>
       </c>
       <c r="L116" s="5" t="n">
-        <v>16408</v>
+        <v>16067</v>
       </c>
       <c r="M116" s="5" t="n">
-        <v>34746</v>
+        <v>34400</v>
       </c>
       <c r="N116" s="6" t="n">
-        <v>0.06825679157179401</v>
+        <v>0.068256791571794</v>
       </c>
       <c r="O116" s="6" t="n">
-        <v>0.04603033205936774</v>
+        <v>0.04507381586250757</v>
       </c>
       <c r="P116" s="6" t="n">
-        <v>0.09747724949278359</v>
+        <v>0.09650463564698213</v>
       </c>
       <c r="Q116" s="5" t="n">
         <v>52</v>
@@ -7583,19 +7583,19 @@
         <v>54161</v>
       </c>
       <c r="S116" s="5" t="n">
-        <v>41781</v>
+        <v>39834</v>
       </c>
       <c r="T116" s="5" t="n">
-        <v>70982</v>
+        <v>72820</v>
       </c>
       <c r="U116" s="6" t="n">
         <v>0.07330610139624036</v>
       </c>
       <c r="V116" s="6" t="n">
-        <v>0.05654965350025316</v>
+        <v>0.0539142522754668</v>
       </c>
       <c r="W116" s="6" t="n">
-        <v>0.09607320796961438</v>
+        <v>0.09856027914923549</v>
       </c>
     </row>
     <row r="117">
@@ -7615,7 +7615,7 @@
         <v>0</v>
       </c>
       <c r="F117" s="5" t="n">
-        <v>5429</v>
+        <v>4916</v>
       </c>
       <c r="G117" s="6" t="n">
         <v>0.002588553694061891</v>
@@ -7624,7 +7624,7 @@
         <v>0</v>
       </c>
       <c r="I117" s="6" t="n">
-        <v>0.01419749866217558</v>
+        <v>0.01285589179407338</v>
       </c>
       <c r="J117" s="5" t="n">
         <v>6</v>
@@ -7633,19 +7633,19 @@
         <v>6998</v>
       </c>
       <c r="L117" s="5" t="n">
-        <v>2830</v>
+        <v>2563</v>
       </c>
       <c r="M117" s="5" t="n">
-        <v>16855</v>
+        <v>15597</v>
       </c>
       <c r="N117" s="6" t="n">
         <v>0.01963269573791043</v>
       </c>
       <c r="O117" s="6" t="n">
-        <v>0.007939661054225014</v>
+        <v>0.007191420631616516</v>
       </c>
       <c r="P117" s="6" t="n">
-        <v>0.04728631473132975</v>
+        <v>0.04375658607381645</v>
       </c>
       <c r="Q117" s="5" t="n">
         <v>7</v>
@@ -7654,19 +7654,19 @@
         <v>7988</v>
       </c>
       <c r="S117" s="5" t="n">
-        <v>3354</v>
+        <v>3638</v>
       </c>
       <c r="T117" s="5" t="n">
-        <v>17785</v>
+        <v>16901</v>
       </c>
       <c r="U117" s="6" t="n">
         <v>0.01081160731856565</v>
       </c>
       <c r="V117" s="6" t="n">
-        <v>0.004539377989357122</v>
+        <v>0.00492454190445267</v>
       </c>
       <c r="W117" s="6" t="n">
-        <v>0.02407192398771494</v>
+        <v>0.02287516958587889</v>
       </c>
     </row>
     <row r="118">
@@ -7683,19 +7683,19 @@
         <v>12750</v>
       </c>
       <c r="E118" s="5" t="n">
-        <v>6971</v>
+        <v>6595</v>
       </c>
       <c r="F118" s="5" t="n">
-        <v>22967</v>
+        <v>21724</v>
       </c>
       <c r="G118" s="6" t="n">
         <v>0.03334469955127895</v>
       </c>
       <c r="H118" s="6" t="n">
-        <v>0.01823061058950368</v>
+        <v>0.01724644043576924</v>
       </c>
       <c r="I118" s="6" t="n">
-        <v>0.06006400134372297</v>
+        <v>0.0568130220786231</v>
       </c>
       <c r="J118" s="5" t="n">
         <v>23</v>
@@ -7704,19 +7704,19 @@
         <v>19695</v>
       </c>
       <c r="L118" s="5" t="n">
-        <v>11945</v>
+        <v>12280</v>
       </c>
       <c r="M118" s="5" t="n">
-        <v>29546</v>
+        <v>29913</v>
       </c>
       <c r="N118" s="6" t="n">
         <v>0.05525274322173892</v>
       </c>
       <c r="O118" s="6" t="n">
-        <v>0.03351165193218967</v>
+        <v>0.03445039125595553</v>
       </c>
       <c r="P118" s="6" t="n">
-        <v>0.08288746348077769</v>
+        <v>0.08391809882858862</v>
       </c>
       <c r="Q118" s="5" t="n">
         <v>34</v>
@@ -7725,19 +7725,19 @@
         <v>32445</v>
       </c>
       <c r="S118" s="5" t="n">
-        <v>22358</v>
+        <v>22205</v>
       </c>
       <c r="T118" s="5" t="n">
-        <v>46427</v>
+        <v>45561</v>
       </c>
       <c r="U118" s="6" t="n">
-        <v>0.04391437313453693</v>
+        <v>0.04391437313453692</v>
       </c>
       <c r="V118" s="6" t="n">
-        <v>0.03026175568914419</v>
+        <v>0.03005446515365086</v>
       </c>
       <c r="W118" s="6" t="n">
-        <v>0.06283802031021085</v>
+        <v>0.06166656394671297</v>
       </c>
     </row>
     <row r="119">
@@ -7754,19 +7754,19 @@
         <v>280572</v>
       </c>
       <c r="E119" s="5" t="n">
-        <v>258868</v>
+        <v>261663</v>
       </c>
       <c r="F119" s="5" t="n">
-        <v>299513</v>
+        <v>299163</v>
       </c>
       <c r="G119" s="6" t="n">
-        <v>0.7337541519498529</v>
+        <v>0.7337541519498528</v>
       </c>
       <c r="H119" s="6" t="n">
-        <v>0.6769923889372905</v>
+        <v>0.6843025462490214</v>
       </c>
       <c r="I119" s="6" t="n">
-        <v>0.7832881611205983</v>
+        <v>0.7823732456176795</v>
       </c>
       <c r="J119" s="5" t="n">
         <v>255</v>
@@ -7775,19 +7775,19 @@
         <v>202267</v>
       </c>
       <c r="L119" s="5" t="n">
-        <v>185780</v>
+        <v>184498</v>
       </c>
       <c r="M119" s="5" t="n">
-        <v>220487</v>
+        <v>219609</v>
       </c>
       <c r="N119" s="6" t="n">
-        <v>0.5674404388948221</v>
+        <v>0.5674404388948219</v>
       </c>
       <c r="O119" s="6" t="n">
-        <v>0.5211876452968142</v>
+        <v>0.5175926374806054</v>
       </c>
       <c r="P119" s="6" t="n">
-        <v>0.6185555506235378</v>
+        <v>0.616092927538013</v>
       </c>
       <c r="Q119" s="5" t="n">
         <v>482</v>
@@ -7796,19 +7796,19 @@
         <v>482839</v>
       </c>
       <c r="S119" s="5" t="n">
-        <v>457420</v>
+        <v>455935</v>
       </c>
       <c r="T119" s="5" t="n">
-        <v>509581</v>
+        <v>509954</v>
       </c>
       <c r="U119" s="6" t="n">
         <v>0.6535150541165045</v>
       </c>
       <c r="V119" s="6" t="n">
-        <v>0.6191108081289275</v>
+        <v>0.6171011050377138</v>
       </c>
       <c r="W119" s="6" t="n">
-        <v>0.6897096645598457</v>
+        <v>0.6902147563661193</v>
       </c>
     </row>
     <row r="120">
@@ -7825,19 +7825,19 @@
         <v>3109</v>
       </c>
       <c r="E120" s="5" t="n">
-        <v>952</v>
+        <v>928</v>
       </c>
       <c r="F120" s="5" t="n">
-        <v>8249</v>
+        <v>8977</v>
       </c>
       <c r="G120" s="6" t="n">
-        <v>0.00813171678361369</v>
+        <v>0.008131716783613688</v>
       </c>
       <c r="H120" s="6" t="n">
-        <v>0.002488464492744499</v>
+        <v>0.002426409487997395</v>
       </c>
       <c r="I120" s="6" t="n">
-        <v>0.02157257864334793</v>
+        <v>0.02347635501087292</v>
       </c>
       <c r="J120" s="5" t="n">
         <v>4</v>
@@ -7846,19 +7846,19 @@
         <v>2861</v>
       </c>
       <c r="L120" s="5" t="n">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="M120" s="5" t="n">
-        <v>7235</v>
+        <v>7263</v>
       </c>
       <c r="N120" s="6" t="n">
-        <v>0.00802722597893973</v>
+        <v>0.008027225978939729</v>
       </c>
       <c r="O120" s="6" t="n">
-        <v>0.001999672111074539</v>
+        <v>0.00199513817387371</v>
       </c>
       <c r="P120" s="6" t="n">
-        <v>0.02029739258963488</v>
+        <v>0.02037626238575924</v>
       </c>
       <c r="Q120" s="5" t="n">
         <v>7</v>
@@ -7867,19 +7867,19 @@
         <v>5971</v>
       </c>
       <c r="S120" s="5" t="n">
-        <v>2486</v>
+        <v>2406</v>
       </c>
       <c r="T120" s="5" t="n">
-        <v>12135</v>
+        <v>11905</v>
       </c>
       <c r="U120" s="6" t="n">
         <v>0.008081304537113336</v>
       </c>
       <c r="V120" s="6" t="n">
-        <v>0.003364392074802049</v>
+        <v>0.00325589920213675</v>
       </c>
       <c r="W120" s="6" t="n">
-        <v>0.01642508370234484</v>
+        <v>0.01611278654319266</v>
       </c>
     </row>
     <row r="121">
@@ -7896,19 +7896,19 @@
         <v>28859</v>
       </c>
       <c r="E121" s="5" t="n">
-        <v>19851</v>
+        <v>18985</v>
       </c>
       <c r="F121" s="5" t="n">
-        <v>45149</v>
+        <v>42629</v>
       </c>
       <c r="G121" s="6" t="n">
         <v>0.07547094702171966</v>
       </c>
       <c r="H121" s="6" t="n">
-        <v>0.05191477300745653</v>
+        <v>0.04964974765415273</v>
       </c>
       <c r="I121" s="6" t="n">
-        <v>0.1180741339993596</v>
+        <v>0.111483649613258</v>
       </c>
       <c r="J121" s="5" t="n">
         <v>82</v>
@@ -7917,19 +7917,19 @@
         <v>67661</v>
       </c>
       <c r="L121" s="5" t="n">
-        <v>55025</v>
+        <v>54741</v>
       </c>
       <c r="M121" s="5" t="n">
-        <v>81995</v>
+        <v>81554</v>
       </c>
       <c r="N121" s="6" t="n">
         <v>0.1898151270050108</v>
       </c>
       <c r="O121" s="6" t="n">
-        <v>0.1543675408694478</v>
+        <v>0.1535716049868854</v>
       </c>
       <c r="P121" s="6" t="n">
-        <v>0.230028597582201</v>
+        <v>0.2287912458174239</v>
       </c>
       <c r="Q121" s="5" t="n">
         <v>106</v>
@@ -7938,19 +7938,19 @@
         <v>96519</v>
       </c>
       <c r="S121" s="5" t="n">
-        <v>79876</v>
+        <v>77890</v>
       </c>
       <c r="T121" s="5" t="n">
-        <v>117408</v>
+        <v>114631</v>
       </c>
       <c r="U121" s="6" t="n">
         <v>0.1306370164685455</v>
       </c>
       <c r="V121" s="6" t="n">
-        <v>0.1081114952930957</v>
+        <v>0.1054224047000939</v>
       </c>
       <c r="W121" s="6" t="n">
-        <v>0.1589098950047627</v>
+        <v>0.1551518538651097</v>
       </c>
     </row>
     <row r="122">
@@ -8105,7 +8105,7 @@
         <v>0</v>
       </c>
       <c r="M124" s="5" t="n">
-        <v>4653</v>
+        <v>4634</v>
       </c>
       <c r="N124" s="6" t="n">
         <v>0.002991969324934353</v>
@@ -8114,7 +8114,7 @@
         <v>0</v>
       </c>
       <c r="P124" s="6" t="n">
-        <v>0.01496553902618543</v>
+        <v>0.01490296077693863</v>
       </c>
       <c r="Q124" s="5" t="n">
         <v>1</v>
@@ -8126,7 +8126,7 @@
         <v>0</v>
       </c>
       <c r="T124" s="5" t="n">
-        <v>5205</v>
+        <v>5059</v>
       </c>
       <c r="U124" s="6" t="n">
         <v>0.001220361136858699</v>
@@ -8135,7 +8135,7 @@
         <v>0</v>
       </c>
       <c r="W124" s="6" t="n">
-        <v>0.006827982705188922</v>
+        <v>0.006635631419964787</v>
       </c>
     </row>
     <row r="125">
@@ -8152,19 +8152,19 @@
         <v>6088</v>
       </c>
       <c r="E125" s="5" t="n">
-        <v>2283</v>
+        <v>2105</v>
       </c>
       <c r="F125" s="5" t="n">
-        <v>14524</v>
+        <v>14852</v>
       </c>
       <c r="G125" s="6" t="n">
         <v>0.01348723689179661</v>
       </c>
       <c r="H125" s="6" t="n">
-        <v>0.0050581664848973</v>
+        <v>0.004662349342788765</v>
       </c>
       <c r="I125" s="6" t="n">
-        <v>0.0321768776202782</v>
+        <v>0.03290178651693561</v>
       </c>
       <c r="J125" s="5" t="n">
         <v>8</v>
@@ -8173,19 +8173,19 @@
         <v>6848</v>
       </c>
       <c r="L125" s="5" t="n">
-        <v>3075</v>
+        <v>2867</v>
       </c>
       <c r="M125" s="5" t="n">
-        <v>12354</v>
+        <v>12641</v>
       </c>
       <c r="N125" s="6" t="n">
         <v>0.02202361792335234</v>
       </c>
       <c r="O125" s="6" t="n">
-        <v>0.009890057596860824</v>
+        <v>0.009221813088520599</v>
       </c>
       <c r="P125" s="6" t="n">
-        <v>0.03972980197859881</v>
+        <v>0.04065451230239402</v>
       </c>
       <c r="Q125" s="5" t="n">
         <v>13</v>
@@ -8194,19 +8194,19 @@
         <v>12936</v>
       </c>
       <c r="S125" s="5" t="n">
-        <v>6659</v>
+        <v>7024</v>
       </c>
       <c r="T125" s="5" t="n">
-        <v>21888</v>
+        <v>22235</v>
       </c>
       <c r="U125" s="6" t="n">
         <v>0.01696904653921235</v>
       </c>
       <c r="V125" s="6" t="n">
-        <v>0.008735673606455007</v>
+        <v>0.009213465253173604</v>
       </c>
       <c r="W125" s="6" t="n">
-        <v>0.02871265230354719</v>
+        <v>0.02916707601336788</v>
       </c>
     </row>
     <row r="126">
@@ -8223,19 +8223,19 @@
         <v>46112</v>
       </c>
       <c r="E126" s="5" t="n">
-        <v>34343</v>
+        <v>32885</v>
       </c>
       <c r="F126" s="5" t="n">
-        <v>63039</v>
+        <v>61094</v>
       </c>
       <c r="G126" s="6" t="n">
         <v>0.1021554408652803</v>
       </c>
       <c r="H126" s="6" t="n">
-        <v>0.07608364721411107</v>
+        <v>0.07285247705232765</v>
       </c>
       <c r="I126" s="6" t="n">
-        <v>0.13965507950038</v>
+        <v>0.1353462389308743</v>
       </c>
       <c r="J126" s="5" t="n">
         <v>52</v>
@@ -8244,19 +8244,19 @@
         <v>44786</v>
       </c>
       <c r="L126" s="5" t="n">
-        <v>33017</v>
+        <v>34214</v>
       </c>
       <c r="M126" s="5" t="n">
-        <v>55852</v>
+        <v>56352</v>
       </c>
       <c r="N126" s="6" t="n">
         <v>0.14403594930635</v>
       </c>
       <c r="O126" s="6" t="n">
-        <v>0.1061838833456239</v>
+        <v>0.1100344522630546</v>
       </c>
       <c r="P126" s="6" t="n">
-        <v>0.1796254064579063</v>
+        <v>0.1812337610589007</v>
       </c>
       <c r="Q126" s="5" t="n">
         <v>91</v>
@@ -8265,19 +8265,19 @@
         <v>90898</v>
       </c>
       <c r="S126" s="5" t="n">
-        <v>72434</v>
+        <v>73518</v>
       </c>
       <c r="T126" s="5" t="n">
-        <v>110107</v>
+        <v>111476</v>
       </c>
       <c r="U126" s="6" t="n">
         <v>0.1192376162965025</v>
       </c>
       <c r="V126" s="6" t="n">
-        <v>0.09501703257344778</v>
+        <v>0.09643867387589969</v>
       </c>
       <c r="W126" s="6" t="n">
-        <v>0.1444348860520278</v>
+        <v>0.1462312076946396</v>
       </c>
     </row>
     <row r="127">
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="M127" s="5" t="n">
-        <v>4310</v>
+        <v>4648</v>
       </c>
       <c r="N127" s="6" t="n">
         <v>0.00258706523428098</v>
@@ -8319,7 +8319,7 @@
         <v>0</v>
       </c>
       <c r="P127" s="6" t="n">
-        <v>0.01386160973089752</v>
+        <v>0.0149482932603615</v>
       </c>
       <c r="Q127" s="5" t="n">
         <v>1</v>
@@ -8331,7 +8331,7 @@
         <v>0</v>
       </c>
       <c r="T127" s="5" t="n">
-        <v>4046</v>
+        <v>4047</v>
       </c>
       <c r="U127" s="6" t="n">
         <v>0.001055209304495134</v>
@@ -8340,7 +8340,7 @@
         <v>0</v>
       </c>
       <c r="W127" s="6" t="n">
-        <v>0.005307791672530253</v>
+        <v>0.00530869612730882</v>
       </c>
     </row>
     <row r="128">
@@ -8467,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="M130" s="5" t="n">
-        <v>3682</v>
+        <v>4913</v>
       </c>
       <c r="N130" s="6" t="n">
         <v>0.002325956454599324</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="P130" s="6" t="n">
-        <v>0.01184000401109473</v>
+        <v>0.01580059070808226</v>
       </c>
       <c r="Q130" s="5" t="n">
         <v>1</v>
@@ -8488,16 +8488,16 @@
         <v>0</v>
       </c>
       <c r="T130" s="5" t="n">
-        <v>3665</v>
+        <v>3609</v>
       </c>
       <c r="U130" s="6" t="n">
-        <v>0.0009487085444236432</v>
+        <v>0.0009487085444236434</v>
       </c>
       <c r="V130" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W130" s="6" t="n">
-        <v>0.004807520185217895</v>
+        <v>0.004733731362178611</v>
       </c>
     </row>
     <row r="131">
@@ -8514,19 +8514,19 @@
         <v>23311</v>
       </c>
       <c r="E131" s="5" t="n">
-        <v>15272</v>
+        <v>15015</v>
       </c>
       <c r="F131" s="5" t="n">
-        <v>34317</v>
+        <v>34710</v>
       </c>
       <c r="G131" s="6" t="n">
         <v>0.05164365514407919</v>
       </c>
       <c r="H131" s="6" t="n">
-        <v>0.03383324095731048</v>
+        <v>0.03326317072968527</v>
       </c>
       <c r="I131" s="6" t="n">
-        <v>0.07602519750237835</v>
+        <v>0.07689613139772258</v>
       </c>
       <c r="J131" s="5" t="n">
         <v>21</v>
@@ -8535,19 +8535,19 @@
         <v>16425</v>
       </c>
       <c r="L131" s="5" t="n">
-        <v>10410</v>
+        <v>10360</v>
       </c>
       <c r="M131" s="5" t="n">
-        <v>24460</v>
+        <v>24023</v>
       </c>
       <c r="N131" s="6" t="n">
         <v>0.05282382158599849</v>
       </c>
       <c r="O131" s="6" t="n">
-        <v>0.03348019623844846</v>
+        <v>0.03331920598946524</v>
       </c>
       <c r="P131" s="6" t="n">
-        <v>0.0786652801091374</v>
+        <v>0.07726008583277318</v>
       </c>
       <c r="Q131" s="5" t="n">
         <v>42</v>
@@ -8556,19 +8556,19 @@
         <v>39736</v>
       </c>
       <c r="S131" s="5" t="n">
-        <v>28752</v>
+        <v>28297</v>
       </c>
       <c r="T131" s="5" t="n">
-        <v>52701</v>
+        <v>51291</v>
       </c>
       <c r="U131" s="6" t="n">
-        <v>0.05212502012624682</v>
+        <v>0.05212502012624683</v>
       </c>
       <c r="V131" s="6" t="n">
-        <v>0.03771588282977525</v>
+        <v>0.0371193012865031</v>
       </c>
       <c r="W131" s="6" t="n">
-        <v>0.06913200065566341</v>
+        <v>0.06728190625225683</v>
       </c>
     </row>
     <row r="132">
@@ -8632,19 +8632,19 @@
         <v>25147</v>
       </c>
       <c r="E133" s="5" t="n">
-        <v>16215</v>
+        <v>15320</v>
       </c>
       <c r="F133" s="5" t="n">
-        <v>37209</v>
+        <v>36552</v>
       </c>
       <c r="G133" s="6" t="n">
         <v>0.05571062234295995</v>
       </c>
       <c r="H133" s="6" t="n">
-        <v>0.03592318167957644</v>
+        <v>0.03393865215301078</v>
       </c>
       <c r="I133" s="6" t="n">
-        <v>0.0824322041133554</v>
+        <v>0.08097732788034048</v>
       </c>
       <c r="J133" s="5" t="n">
         <v>26</v>
@@ -8653,19 +8653,19 @@
         <v>20187</v>
       </c>
       <c r="L133" s="5" t="n">
-        <v>13197</v>
+        <v>13792</v>
       </c>
       <c r="M133" s="5" t="n">
-        <v>28780</v>
+        <v>29755</v>
       </c>
       <c r="N133" s="6" t="n">
         <v>0.06492433538372838</v>
       </c>
       <c r="O133" s="6" t="n">
-        <v>0.04244122503530156</v>
+        <v>0.04435639272940307</v>
       </c>
       <c r="P133" s="6" t="n">
-        <v>0.09255764655633221</v>
+        <v>0.09569425866185466</v>
       </c>
       <c r="Q133" s="5" t="n">
         <v>48</v>
@@ -8674,19 +8674,19 @@
         <v>45335</v>
       </c>
       <c r="S133" s="5" t="n">
-        <v>34014</v>
+        <v>33567</v>
       </c>
       <c r="T133" s="5" t="n">
-        <v>60234</v>
+        <v>58797</v>
       </c>
       <c r="U133" s="6" t="n">
-        <v>0.05946870142064858</v>
+        <v>0.05946870142064859</v>
       </c>
       <c r="V133" s="6" t="n">
-        <v>0.04461917669809966</v>
+        <v>0.04403199581203349</v>
       </c>
       <c r="W133" s="6" t="n">
-        <v>0.07901364102647261</v>
+        <v>0.07712845894654852</v>
       </c>
     </row>
     <row r="134">
@@ -8706,7 +8706,7 @@
         <v>0</v>
       </c>
       <c r="F134" s="5" t="n">
-        <v>9015</v>
+        <v>7939</v>
       </c>
       <c r="G134" s="6" t="n">
         <v>0.005755893710415656</v>
@@ -8715,7 +8715,7 @@
         <v>0</v>
       </c>
       <c r="I134" s="6" t="n">
-        <v>0.01997109340239205</v>
+        <v>0.01758812916922674</v>
       </c>
       <c r="J134" s="5" t="n">
         <v>1</v>
@@ -8727,7 +8727,7 @@
         <v>0</v>
       </c>
       <c r="M134" s="5" t="n">
-        <v>6735</v>
+        <v>8656</v>
       </c>
       <c r="N134" s="6" t="n">
         <v>0.00429436188122766</v>
@@ -8736,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="P134" s="6" t="n">
-        <v>0.02166075583511336</v>
+        <v>0.02783920385573108</v>
       </c>
       <c r="Q134" s="5" t="n">
         <v>3</v>
@@ -8745,19 +8745,19 @@
         <v>3933</v>
       </c>
       <c r="S134" s="5" t="n">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="T134" s="5" t="n">
-        <v>10807</v>
+        <v>10452</v>
       </c>
       <c r="U134" s="6" t="n">
-        <v>0.00515976572549316</v>
+        <v>0.005159765725493161</v>
       </c>
       <c r="V134" s="6" t="n">
-        <v>0.001688273122365038</v>
+        <v>0.001683267877457995</v>
       </c>
       <c r="W134" s="6" t="n">
-        <v>0.01417618488219588</v>
+        <v>0.01371072250930023</v>
       </c>
     </row>
     <row r="135">
@@ -8774,19 +8774,19 @@
         <v>30576</v>
       </c>
       <c r="E135" s="5" t="n">
-        <v>19217</v>
+        <v>20033</v>
       </c>
       <c r="F135" s="5" t="n">
-        <v>44932</v>
+        <v>45835</v>
       </c>
       <c r="G135" s="6" t="n">
-        <v>0.06773805557363369</v>
+        <v>0.0677380555736337</v>
       </c>
       <c r="H135" s="6" t="n">
-        <v>0.04257191819351239</v>
+        <v>0.04438169528084094</v>
       </c>
       <c r="I135" s="6" t="n">
-        <v>0.09954110587418272</v>
+        <v>0.1015408896508649</v>
       </c>
       <c r="J135" s="5" t="n">
         <v>36</v>
@@ -8795,19 +8795,19 @@
         <v>30311</v>
       </c>
       <c r="L135" s="5" t="n">
-        <v>21962</v>
+        <v>22045</v>
       </c>
       <c r="M135" s="5" t="n">
-        <v>41028</v>
+        <v>40360</v>
       </c>
       <c r="N135" s="6" t="n">
-        <v>0.09748393752615721</v>
+        <v>0.09748393752615719</v>
       </c>
       <c r="O135" s="6" t="n">
-        <v>0.07063282539860245</v>
+        <v>0.07089979208978439</v>
       </c>
       <c r="P135" s="6" t="n">
-        <v>0.1319496699862728</v>
+        <v>0.1297992699075939</v>
       </c>
       <c r="Q135" s="5" t="n">
         <v>59</v>
@@ -8816,19 +8816,19 @@
         <v>60888</v>
       </c>
       <c r="S135" s="5" t="n">
-        <v>46934</v>
+        <v>46623</v>
       </c>
       <c r="T135" s="5" t="n">
-        <v>79217</v>
+        <v>77213</v>
       </c>
       <c r="U135" s="6" t="n">
-        <v>0.07987077298284133</v>
+        <v>0.07987077298284134</v>
       </c>
       <c r="V135" s="6" t="n">
-        <v>0.06156680020118621</v>
+        <v>0.06115877681242717</v>
       </c>
       <c r="W135" s="6" t="n">
-        <v>0.1039148833687226</v>
+        <v>0.1012853418359676</v>
       </c>
     </row>
     <row r="136">
@@ -8845,19 +8845,19 @@
         <v>228203</v>
       </c>
       <c r="E136" s="5" t="n">
-        <v>203786</v>
+        <v>205972</v>
       </c>
       <c r="F136" s="5" t="n">
-        <v>250213</v>
+        <v>251092</v>
       </c>
       <c r="G136" s="6" t="n">
         <v>0.5055557427791616</v>
       </c>
       <c r="H136" s="6" t="n">
-        <v>0.4514612701771981</v>
+        <v>0.4563060209880594</v>
       </c>
       <c r="I136" s="6" t="n">
-        <v>0.5543162616919151</v>
+        <v>0.5562621689087498</v>
       </c>
       <c r="J136" s="5" t="n">
         <v>117</v>
@@ -8866,19 +8866,19 @@
         <v>96618</v>
       </c>
       <c r="L136" s="5" t="n">
-        <v>82188</v>
+        <v>83106</v>
       </c>
       <c r="M136" s="5" t="n">
-        <v>112250</v>
+        <v>112786</v>
       </c>
       <c r="N136" s="6" t="n">
         <v>0.3107316102941117</v>
       </c>
       <c r="O136" s="6" t="n">
-        <v>0.2643236216842135</v>
+        <v>0.2672763060074673</v>
       </c>
       <c r="P136" s="6" t="n">
-        <v>0.3610046918075056</v>
+        <v>0.3627284301027016</v>
       </c>
       <c r="Q136" s="5" t="n">
         <v>313</v>
@@ -8887,19 +8887,19 @@
         <v>324822</v>
       </c>
       <c r="S136" s="5" t="n">
-        <v>297133</v>
+        <v>298248</v>
       </c>
       <c r="T136" s="5" t="n">
-        <v>355536</v>
+        <v>353320</v>
       </c>
       <c r="U136" s="6" t="n">
-        <v>0.4260910912449478</v>
+        <v>0.4260910912449479</v>
       </c>
       <c r="V136" s="6" t="n">
-        <v>0.3897705488776882</v>
+        <v>0.3912332153851488</v>
       </c>
       <c r="W136" s="6" t="n">
-        <v>0.4663815580514346</v>
+        <v>0.463474469120369</v>
       </c>
     </row>
     <row r="137">
@@ -8916,19 +8916,19 @@
         <v>9089</v>
       </c>
       <c r="E137" s="5" t="n">
-        <v>3375</v>
+        <v>3406</v>
       </c>
       <c r="F137" s="5" t="n">
-        <v>18202</v>
+        <v>18693</v>
       </c>
       <c r="G137" s="6" t="n">
         <v>0.02013599879195704</v>
       </c>
       <c r="H137" s="6" t="n">
-        <v>0.007475862957771057</v>
+        <v>0.007546424887218396</v>
       </c>
       <c r="I137" s="6" t="n">
-        <v>0.04032445448853558</v>
+        <v>0.0414118218884949</v>
       </c>
       <c r="J137" s="5" t="n">
         <v>6</v>
@@ -8937,19 +8937,19 @@
         <v>5077</v>
       </c>
       <c r="L137" s="5" t="n">
-        <v>2321</v>
+        <v>1903</v>
       </c>
       <c r="M137" s="5" t="n">
-        <v>11003</v>
+        <v>10518</v>
       </c>
       <c r="N137" s="6" t="n">
         <v>0.01632695783353282</v>
       </c>
       <c r="O137" s="6" t="n">
-        <v>0.007464628162678761</v>
+        <v>0.006118647969215463</v>
       </c>
       <c r="P137" s="6" t="n">
-        <v>0.03538602624692221</v>
+        <v>0.03382701700061478</v>
       </c>
       <c r="Q137" s="5" t="n">
         <v>13</v>
@@ -8958,19 +8958,19 @@
         <v>14166</v>
       </c>
       <c r="S137" s="5" t="n">
-        <v>7717</v>
+        <v>7548</v>
       </c>
       <c r="T137" s="5" t="n">
-        <v>25527</v>
+        <v>23632</v>
       </c>
       <c r="U137" s="6" t="n">
-        <v>0.01858237138153366</v>
+        <v>0.01858237138153367</v>
       </c>
       <c r="V137" s="6" t="n">
-        <v>0.01012334670847064</v>
+        <v>0.009900769854492529</v>
       </c>
       <c r="W137" s="6" t="n">
-        <v>0.0334858714202584</v>
+        <v>0.03099975635904117</v>
       </c>
     </row>
     <row r="138">
@@ -8987,19 +8987,19 @@
         <v>80265</v>
       </c>
       <c r="E138" s="5" t="n">
-        <v>62340</v>
+        <v>63022</v>
       </c>
       <c r="F138" s="5" t="n">
-        <v>99246</v>
+        <v>98316</v>
       </c>
       <c r="G138" s="6" t="n">
         <v>0.1778173539007159</v>
       </c>
       <c r="H138" s="6" t="n">
-        <v>0.1381070207352377</v>
+        <v>0.13961693273954</v>
       </c>
       <c r="I138" s="6" t="n">
-        <v>0.2198665322556599</v>
+        <v>0.2178058994936458</v>
       </c>
       <c r="J138" s="5" t="n">
         <v>103</v>
@@ -9008,19 +9008,19 @@
         <v>86892</v>
       </c>
       <c r="L138" s="5" t="n">
-        <v>72576</v>
+        <v>72028</v>
       </c>
       <c r="M138" s="5" t="n">
-        <v>102759</v>
+        <v>102291</v>
       </c>
       <c r="N138" s="6" t="n">
         <v>0.2794504172517266</v>
       </c>
       <c r="O138" s="6" t="n">
-        <v>0.2334099601574226</v>
+        <v>0.2316459683914479</v>
       </c>
       <c r="P138" s="6" t="n">
-        <v>0.3304816491971765</v>
+        <v>0.3289767935225421</v>
       </c>
       <c r="Q138" s="5" t="n">
         <v>168</v>
@@ -9029,19 +9029,19 @@
         <v>167157</v>
       </c>
       <c r="S138" s="5" t="n">
-        <v>144924</v>
+        <v>144592</v>
       </c>
       <c r="T138" s="5" t="n">
-        <v>191366</v>
+        <v>188814</v>
       </c>
       <c r="U138" s="6" t="n">
         <v>0.2192713352967962</v>
       </c>
       <c r="V138" s="6" t="n">
-        <v>0.1901064556323767</v>
+        <v>0.1896715641582793</v>
       </c>
       <c r="W138" s="6" t="n">
-        <v>0.2510278706988922</v>
+        <v>0.2476798556494623</v>
       </c>
     </row>
     <row r="139">
@@ -9136,7 +9136,7 @@
         <v>0</v>
       </c>
       <c r="F140" s="5" t="n">
-        <v>6383</v>
+        <v>5841</v>
       </c>
       <c r="G140" s="6" t="n">
         <v>0.0007533493672308719</v>
@@ -9145,7 +9145,7 @@
         <v>0</v>
       </c>
       <c r="I140" s="6" t="n">
-        <v>0.003345128626098545</v>
+        <v>0.003060882984053997</v>
       </c>
       <c r="J140" s="5" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="T140" s="5" t="n">
-        <v>8370</v>
+        <v>8651</v>
       </c>
       <c r="U140" s="6" t="n">
         <v>0.0004228330204170084</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="W140" s="6" t="n">
-        <v>0.002461784613020161</v>
+        <v>0.002544730214709033</v>
       </c>
     </row>
     <row r="141">
@@ -9199,7 +9199,7 @@
         <v>0</v>
       </c>
       <c r="F141" s="5" t="n">
-        <v>4616</v>
+        <v>4617</v>
       </c>
       <c r="G141" s="6" t="n">
         <v>0.0004843019102556936</v>
@@ -9208,7 +9208,7 @@
         <v>0</v>
       </c>
       <c r="I141" s="6" t="n">
-        <v>0.002419153882571974</v>
+        <v>0.002419636429034344</v>
       </c>
       <c r="J141" s="5" t="n">
         <v>1</v>
@@ -9220,7 +9220,7 @@
         <v>0</v>
       </c>
       <c r="M141" s="5" t="n">
-        <v>4727</v>
+        <v>4186</v>
       </c>
       <c r="N141" s="6" t="n">
         <v>0.0006237125233847015</v>
@@ -9229,7 +9229,7 @@
         <v>0</v>
       </c>
       <c r="P141" s="6" t="n">
-        <v>0.003169060083807105</v>
+        <v>0.002806099666356282</v>
       </c>
       <c r="Q141" s="5" t="n">
         <v>2</v>
@@ -9241,7 +9241,7 @@
         <v>0</v>
       </c>
       <c r="T141" s="5" t="n">
-        <v>6553</v>
+        <v>5590</v>
       </c>
       <c r="U141" s="6" t="n">
         <v>0.0005454654136218013</v>
@@ -9250,7 +9250,7 @@
         <v>0</v>
       </c>
       <c r="W141" s="6" t="n">
-        <v>0.001927584100244472</v>
+        <v>0.001644171361715001</v>
       </c>
     </row>
     <row r="142">
@@ -9267,19 +9267,19 @@
         <v>105956</v>
       </c>
       <c r="E142" s="5" t="n">
-        <v>87556</v>
+        <v>85679</v>
       </c>
       <c r="F142" s="5" t="n">
-        <v>129078</v>
+        <v>125950</v>
       </c>
       <c r="G142" s="6" t="n">
         <v>0.0555270863681273</v>
       </c>
       <c r="H142" s="6" t="n">
-        <v>0.04588419620655527</v>
+        <v>0.0449006781094641</v>
       </c>
       <c r="I142" s="6" t="n">
-        <v>0.0676440131910138</v>
+        <v>0.06600494272110805</v>
       </c>
       <c r="J142" s="5" t="n">
         <v>198</v>
@@ -9288,19 +9288,19 @@
         <v>123988</v>
       </c>
       <c r="L142" s="5" t="n">
-        <v>106650</v>
+        <v>107939</v>
       </c>
       <c r="M142" s="5" t="n">
-        <v>142891</v>
+        <v>143391</v>
       </c>
       <c r="N142" s="6" t="n">
-        <v>0.08312521408994712</v>
+        <v>0.08312521408994711</v>
       </c>
       <c r="O142" s="6" t="n">
-        <v>0.07150143616802603</v>
+        <v>0.07236554565664609</v>
       </c>
       <c r="P142" s="6" t="n">
-        <v>0.09579844616068856</v>
+        <v>0.09613390195291768</v>
       </c>
       <c r="Q142" s="5" t="n">
         <v>312</v>
@@ -9309,19 +9309,19 @@
         <v>229944</v>
       </c>
       <c r="S142" s="5" t="n">
-        <v>204096</v>
+        <v>205107</v>
       </c>
       <c r="T142" s="5" t="n">
-        <v>258070</v>
+        <v>260759</v>
       </c>
       <c r="U142" s="6" t="n">
         <v>0.06763519019125414</v>
       </c>
       <c r="V142" s="6" t="n">
-        <v>0.06003232664336567</v>
+        <v>0.06032962053270939</v>
       </c>
       <c r="W142" s="6" t="n">
-        <v>0.07590805344521587</v>
+        <v>0.0766990721456845</v>
       </c>
     </row>
     <row r="143">
@@ -9338,19 +9338,19 @@
         <v>53654</v>
       </c>
       <c r="E143" s="5" t="n">
-        <v>38774</v>
+        <v>38292</v>
       </c>
       <c r="F143" s="5" t="n">
-        <v>71335</v>
+        <v>70335</v>
       </c>
       <c r="G143" s="6" t="n">
         <v>0.02811793879668906</v>
       </c>
       <c r="H143" s="6" t="n">
-        <v>0.02031950396744905</v>
+        <v>0.0200669504643292</v>
       </c>
       <c r="I143" s="6" t="n">
-        <v>0.03738335438731919</v>
+        <v>0.03685945822248453</v>
       </c>
       <c r="J143" s="5" t="n">
         <v>66</v>
@@ -9359,19 +9359,19 @@
         <v>56045</v>
       </c>
       <c r="L143" s="5" t="n">
-        <v>43395</v>
+        <v>43333</v>
       </c>
       <c r="M143" s="5" t="n">
-        <v>71054</v>
+        <v>69922</v>
       </c>
       <c r="N143" s="6" t="n">
         <v>0.03757434370539174</v>
       </c>
       <c r="O143" s="6" t="n">
-        <v>0.02909304598142287</v>
+        <v>0.02905198174566065</v>
       </c>
       <c r="P143" s="6" t="n">
-        <v>0.04763679690184943</v>
+        <v>0.04687769873170473</v>
       </c>
       <c r="Q143" s="5" t="n">
         <v>112</v>
@@ -9380,19 +9380,19 @@
         <v>109700</v>
       </c>
       <c r="S143" s="5" t="n">
-        <v>90524</v>
+        <v>89317</v>
       </c>
       <c r="T143" s="5" t="n">
-        <v>134624</v>
+        <v>133516</v>
       </c>
       <c r="U143" s="6" t="n">
         <v>0.03226673952629697</v>
       </c>
       <c r="V143" s="6" t="n">
-        <v>0.02662662098203059</v>
+        <v>0.02627156744302847</v>
       </c>
       <c r="W143" s="6" t="n">
-        <v>0.03959806576331179</v>
+        <v>0.03927202686413204</v>
       </c>
     </row>
     <row r="144">
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="F144" s="5" t="n">
-        <v>9993</v>
+        <v>9414</v>
       </c>
       <c r="G144" s="6" t="n">
         <v>0.000989640210146101</v>
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="I144" s="6" t="n">
-        <v>0.005236768397859587</v>
+        <v>0.004933503747398395</v>
       </c>
       <c r="J144" s="5" t="n">
         <v>1</v>
@@ -9433,7 +9433,7 @@
         <v>0</v>
       </c>
       <c r="M144" s="5" t="n">
-        <v>4031</v>
+        <v>4496</v>
       </c>
       <c r="N144" s="6" t="n">
         <v>0.000539305323750145</v>
@@ -9442,7 +9442,7 @@
         <v>0</v>
       </c>
       <c r="P144" s="6" t="n">
-        <v>0.002702481347599936</v>
+        <v>0.003014588583077359</v>
       </c>
       <c r="Q144" s="5" t="n">
         <v>2</v>
@@ -9454,7 +9454,7 @@
         <v>0</v>
       </c>
       <c r="T144" s="5" t="n">
-        <v>11285</v>
+        <v>11048</v>
       </c>
       <c r="U144" s="6" t="n">
         <v>0.0007920651566997322</v>
@@ -9463,7 +9463,7 @@
         <v>0</v>
       </c>
       <c r="W144" s="6" t="n">
-        <v>0.003319216044846755</v>
+        <v>0.00324962232498112</v>
       </c>
     </row>
     <row r="145">
@@ -9496,7 +9496,7 @@
         <v>0</v>
       </c>
       <c r="M145" s="5" t="n">
-        <v>4767</v>
+        <v>4758</v>
       </c>
       <c r="N145" s="6" t="n">
         <v>0.0009143672508223271</v>
@@ -9505,7 +9505,7 @@
         <v>0</v>
       </c>
       <c r="P145" s="6" t="n">
-        <v>0.003195855075073584</v>
+        <v>0.003189622802664767</v>
       </c>
       <c r="Q145" s="5" t="n">
         <v>2</v>
@@ -9517,7 +9517,7 @@
         <v>0</v>
       </c>
       <c r="T145" s="5" t="n">
-        <v>4763</v>
+        <v>4830</v>
       </c>
       <c r="U145" s="6" t="n">
         <v>0.0004011595901366368</v>
@@ -9526,7 +9526,7 @@
         <v>0</v>
       </c>
       <c r="W145" s="6" t="n">
-        <v>0.00140111193065582</v>
+        <v>0.001420781756225012</v>
       </c>
     </row>
     <row r="146">
@@ -9543,19 +9543,19 @@
         <v>4687</v>
       </c>
       <c r="E146" s="5" t="n">
-        <v>1746</v>
+        <v>1785</v>
       </c>
       <c r="F146" s="5" t="n">
-        <v>10227</v>
+        <v>10696</v>
       </c>
       <c r="G146" s="6" t="n">
         <v>0.002456226246637899</v>
       </c>
       <c r="H146" s="6" t="n">
-        <v>0.0009152177032405888</v>
+        <v>0.000935242975448307</v>
       </c>
       <c r="I146" s="6" t="n">
-        <v>0.005359277691246896</v>
+        <v>0.005605268935108911</v>
       </c>
       <c r="J146" s="5" t="n">
         <v>0</v>
@@ -9577,19 +9577,19 @@
         <v>4687</v>
       </c>
       <c r="S146" s="5" t="n">
-        <v>1709</v>
+        <v>1770</v>
       </c>
       <c r="T146" s="5" t="n">
-        <v>10308</v>
+        <v>11098</v>
       </c>
       <c r="U146" s="6" t="n">
         <v>0.001378608130396362</v>
       </c>
       <c r="V146" s="6" t="n">
-        <v>0.0005028111168970057</v>
+        <v>0.0005207319962175456</v>
       </c>
       <c r="W146" s="6" t="n">
-        <v>0.003031912333050081</v>
+        <v>0.003264236215723551</v>
       </c>
     </row>
     <row r="147">
@@ -9609,7 +9609,7 @@
         <v>0</v>
       </c>
       <c r="F147" s="5" t="n">
-        <v>13255</v>
+        <v>14423</v>
       </c>
       <c r="G147" s="6" t="n">
         <v>0.001381921929703483</v>
@@ -9618,7 +9618,7 @@
         <v>0</v>
       </c>
       <c r="I147" s="6" t="n">
-        <v>0.006946510521555434</v>
+        <v>0.007558236308118927</v>
       </c>
       <c r="J147" s="5" t="n">
         <v>1</v>
@@ -9630,7 +9630,7 @@
         <v>0</v>
       </c>
       <c r="M147" s="5" t="n">
-        <v>3651</v>
+        <v>3628</v>
       </c>
       <c r="N147" s="6" t="n">
         <v>0.0004848740117390437</v>
@@ -9639,7 +9639,7 @@
         <v>0</v>
       </c>
       <c r="P147" s="6" t="n">
-        <v>0.002447850890255213</v>
+        <v>0.002432477805070749</v>
       </c>
       <c r="Q147" s="5" t="n">
         <v>2</v>
@@ -9648,19 +9648,19 @@
         <v>3360</v>
       </c>
       <c r="S147" s="5" t="n">
-        <v>713</v>
+        <v>0</v>
       </c>
       <c r="T147" s="5" t="n">
-        <v>15247</v>
+        <v>13982</v>
       </c>
       <c r="U147" s="6" t="n">
         <v>0.0009883608361932969</v>
       </c>
       <c r="V147" s="6" t="n">
-        <v>0.0002095999047186226</v>
+        <v>0</v>
       </c>
       <c r="W147" s="6" t="n">
-        <v>0.004484780447897122</v>
+        <v>0.004112662427577492</v>
       </c>
     </row>
     <row r="148">
@@ -9677,19 +9677,19 @@
         <v>41276</v>
       </c>
       <c r="E148" s="5" t="n">
-        <v>28245</v>
+        <v>27897</v>
       </c>
       <c r="F148" s="5" t="n">
-        <v>57426</v>
+        <v>57355</v>
       </c>
       <c r="G148" s="6" t="n">
         <v>0.02163073153091076</v>
       </c>
       <c r="H148" s="6" t="n">
-        <v>0.01480178119310365</v>
+        <v>0.01461938894393643</v>
       </c>
       <c r="I148" s="6" t="n">
-        <v>0.0300944382513367</v>
+        <v>0.0300573063295733</v>
       </c>
       <c r="J148" s="5" t="n">
         <v>49</v>
@@ -9698,19 +9698,19 @@
         <v>38810</v>
       </c>
       <c r="L148" s="5" t="n">
-        <v>29086</v>
+        <v>28707</v>
       </c>
       <c r="M148" s="5" t="n">
-        <v>51021</v>
+        <v>50774</v>
       </c>
       <c r="N148" s="6" t="n">
         <v>0.02601951593696163</v>
       </c>
       <c r="O148" s="6" t="n">
-        <v>0.01950041263847737</v>
+        <v>0.01924629948363806</v>
       </c>
       <c r="P148" s="6" t="n">
-        <v>0.03420633523116256</v>
+        <v>0.0340403974528447</v>
       </c>
       <c r="Q148" s="5" t="n">
         <v>82</v>
@@ -9719,19 +9719,19 @@
         <v>80086</v>
       </c>
       <c r="S148" s="5" t="n">
-        <v>63516</v>
+        <v>63265</v>
       </c>
       <c r="T148" s="5" t="n">
-        <v>100827</v>
+        <v>100034</v>
       </c>
       <c r="U148" s="6" t="n">
-        <v>0.02355621929520465</v>
+        <v>0.02355621929520464</v>
       </c>
       <c r="V148" s="6" t="n">
-        <v>0.01868240867532859</v>
+        <v>0.0186087371482214</v>
       </c>
       <c r="W148" s="6" t="n">
-        <v>0.02965695667125414</v>
+        <v>0.02942380843506302</v>
       </c>
     </row>
     <row r="149">
@@ -9748,19 +9748,19 @@
         <v>7780</v>
       </c>
       <c r="E149" s="5" t="n">
-        <v>3269</v>
+        <v>2803</v>
       </c>
       <c r="F149" s="5" t="n">
-        <v>17701</v>
+        <v>16992</v>
       </c>
       <c r="G149" s="6" t="n">
         <v>0.004077310640838517</v>
       </c>
       <c r="H149" s="6" t="n">
-        <v>0.001713057179654434</v>
+        <v>0.00146908249418799</v>
       </c>
       <c r="I149" s="6" t="n">
-        <v>0.00927607287551587</v>
+        <v>0.008904749073002325</v>
       </c>
       <c r="J149" s="5" t="n">
         <v>5</v>
@@ -9769,19 +9769,19 @@
         <v>4612</v>
       </c>
       <c r="L149" s="5" t="n">
-        <v>1401</v>
+        <v>1453</v>
       </c>
       <c r="M149" s="5" t="n">
-        <v>10948</v>
+        <v>11188</v>
       </c>
       <c r="N149" s="6" t="n">
         <v>0.003091774172418752</v>
       </c>
       <c r="O149" s="6" t="n">
-        <v>0.0009394075575211496</v>
+        <v>0.0009744229449431329</v>
       </c>
       <c r="P149" s="6" t="n">
-        <v>0.007339906857598577</v>
+        <v>0.00750106152678757</v>
       </c>
       <c r="Q149" s="5" t="n">
         <v>11</v>
@@ -9790,19 +9790,19 @@
         <v>12392</v>
       </c>
       <c r="S149" s="5" t="n">
-        <v>6486</v>
+        <v>5980</v>
       </c>
       <c r="T149" s="5" t="n">
-        <v>21898</v>
+        <v>21793</v>
       </c>
       <c r="U149" s="6" t="n">
-        <v>0.003644927038538216</v>
+        <v>0.003644927038538215</v>
       </c>
       <c r="V149" s="6" t="n">
-        <v>0.001907693292820248</v>
+        <v>0.001759080470463198</v>
       </c>
       <c r="W149" s="6" t="n">
-        <v>0.006440952217933121</v>
+        <v>0.006410039260799198</v>
       </c>
     </row>
     <row r="150">
@@ -9819,19 +9819,19 @@
         <v>82649</v>
       </c>
       <c r="E150" s="5" t="n">
-        <v>62516</v>
+        <v>64100</v>
       </c>
       <c r="F150" s="5" t="n">
-        <v>103234</v>
+        <v>104062</v>
       </c>
       <c r="G150" s="6" t="n">
         <v>0.04331269666948536</v>
       </c>
       <c r="H150" s="6" t="n">
-        <v>0.0327618210240669</v>
+        <v>0.03359209477268975</v>
       </c>
       <c r="I150" s="6" t="n">
-        <v>0.0541002334825437</v>
+        <v>0.05453442881157914</v>
       </c>
       <c r="J150" s="5" t="n">
         <v>80</v>
@@ -9840,19 +9840,19 @@
         <v>60229</v>
       </c>
       <c r="L150" s="5" t="n">
-        <v>47608</v>
+        <v>47560</v>
       </c>
       <c r="M150" s="5" t="n">
-        <v>75034</v>
+        <v>75622</v>
       </c>
       <c r="N150" s="6" t="n">
-        <v>0.04037911672225471</v>
+        <v>0.0403791167222547</v>
       </c>
       <c r="O150" s="6" t="n">
-        <v>0.0319181346528153</v>
+        <v>0.03188565203714237</v>
       </c>
       <c r="P150" s="6" t="n">
-        <v>0.05030514510694439</v>
+        <v>0.05069908798520172</v>
       </c>
       <c r="Q150" s="5" t="n">
         <v>145</v>
@@ -9861,19 +9861,19 @@
         <v>142878</v>
       </c>
       <c r="S150" s="5" t="n">
-        <v>121026</v>
+        <v>118022</v>
       </c>
       <c r="T150" s="5" t="n">
-        <v>171471</v>
+        <v>169225</v>
       </c>
       <c r="U150" s="6" t="n">
         <v>0.04202564955771957</v>
       </c>
       <c r="V150" s="6" t="n">
-        <v>0.03559841553117537</v>
+        <v>0.03471456142359493</v>
       </c>
       <c r="W150" s="6" t="n">
-        <v>0.05043605849240512</v>
+        <v>0.04977553137755164</v>
       </c>
     </row>
     <row r="151">
@@ -9890,19 +9890,19 @@
         <v>11499</v>
       </c>
       <c r="E151" s="5" t="n">
-        <v>5816</v>
+        <v>6301</v>
       </c>
       <c r="F151" s="5" t="n">
-        <v>19910</v>
+        <v>21117</v>
       </c>
       <c r="G151" s="6" t="n">
         <v>0.006025931359647398</v>
       </c>
       <c r="H151" s="6" t="n">
-        <v>0.003047936286165074</v>
+        <v>0.003301980101589122</v>
       </c>
       <c r="I151" s="6" t="n">
-        <v>0.01043390915926599</v>
+        <v>0.01106658083194452</v>
       </c>
       <c r="J151" s="5" t="n">
         <v>7</v>
@@ -9911,19 +9911,19 @@
         <v>8333</v>
       </c>
       <c r="L151" s="5" t="n">
-        <v>2904</v>
+        <v>3720</v>
       </c>
       <c r="M151" s="5" t="n">
-        <v>17617</v>
+        <v>20156</v>
       </c>
       <c r="N151" s="6" t="n">
         <v>0.005587004700473745</v>
       </c>
       <c r="O151" s="6" t="n">
-        <v>0.001946880294739444</v>
+        <v>0.002494089978282378</v>
       </c>
       <c r="P151" s="6" t="n">
-        <v>0.01181067140800647</v>
+        <v>0.01351311192698552</v>
       </c>
       <c r="Q151" s="5" t="n">
         <v>18</v>
@@ -9932,19 +9932,19 @@
         <v>19832</v>
       </c>
       <c r="S151" s="5" t="n">
-        <v>11854</v>
+        <v>12231</v>
       </c>
       <c r="T151" s="5" t="n">
-        <v>31679</v>
+        <v>32342</v>
       </c>
       <c r="U151" s="6" t="n">
         <v>0.005833361428325175</v>
       </c>
       <c r="V151" s="6" t="n">
-        <v>0.003486831973125311</v>
+        <v>0.003597730671120454</v>
       </c>
       <c r="W151" s="6" t="n">
-        <v>0.009318024651121734</v>
+        <v>0.009513136536318075</v>
       </c>
     </row>
     <row r="152">
@@ -9961,19 +9961,19 @@
         <v>60177</v>
       </c>
       <c r="E152" s="5" t="n">
-        <v>46179</v>
+        <v>46281</v>
       </c>
       <c r="F152" s="5" t="n">
-        <v>79057</v>
+        <v>80572</v>
       </c>
       <c r="G152" s="6" t="n">
         <v>0.03153621291639932</v>
       </c>
       <c r="H152" s="6" t="n">
-        <v>0.02420052107303319</v>
+        <v>0.02425404139426754</v>
       </c>
       <c r="I152" s="6" t="n">
-        <v>0.04143043280049689</v>
+        <v>0.04222413672694875</v>
       </c>
       <c r="J152" s="5" t="n">
         <v>88</v>
@@ -9982,19 +9982,19 @@
         <v>74879</v>
       </c>
       <c r="L152" s="5" t="n">
-        <v>60914</v>
+        <v>59791</v>
       </c>
       <c r="M152" s="5" t="n">
-        <v>94834</v>
+        <v>91745</v>
       </c>
       <c r="N152" s="6" t="n">
         <v>0.05020137618890151</v>
       </c>
       <c r="O152" s="6" t="n">
-        <v>0.04083843398436664</v>
+        <v>0.04008593994289062</v>
       </c>
       <c r="P152" s="6" t="n">
-        <v>0.06357983552221939</v>
+        <v>0.06150887936584278</v>
       </c>
       <c r="Q152" s="5" t="n">
         <v>139</v>
@@ -10003,19 +10003,19 @@
         <v>135056</v>
       </c>
       <c r="S152" s="5" t="n">
-        <v>111918</v>
+        <v>113443</v>
       </c>
       <c r="T152" s="5" t="n">
-        <v>160835</v>
+        <v>161386</v>
       </c>
       <c r="U152" s="6" t="n">
         <v>0.03972516461113291</v>
       </c>
       <c r="V152" s="6" t="n">
-        <v>0.032919239826386</v>
+        <v>0.03336772084123455</v>
       </c>
       <c r="W152" s="6" t="n">
-        <v>0.04730769450822058</v>
+        <v>0.047469801189612</v>
       </c>
     </row>
     <row r="153">
@@ -10032,19 +10032,19 @@
         <v>1239059</v>
       </c>
       <c r="E153" s="5" t="n">
-        <v>1194261</v>
+        <v>1191053</v>
       </c>
       <c r="F153" s="5" t="n">
-        <v>1287316</v>
+        <v>1286108</v>
       </c>
       <c r="G153" s="6" t="n">
         <v>0.6493367682937975</v>
       </c>
       <c r="H153" s="6" t="n">
-        <v>0.6258601665981331</v>
+        <v>0.624178814034664</v>
       </c>
       <c r="I153" s="6" t="n">
-        <v>0.6746258628137118</v>
+        <v>0.6739929145528668</v>
       </c>
       <c r="J153" s="5" t="n">
         <v>989</v>
@@ -10053,19 +10053,19 @@
         <v>744024</v>
       </c>
       <c r="L153" s="5" t="n">
-        <v>710665</v>
+        <v>709435</v>
       </c>
       <c r="M153" s="5" t="n">
-        <v>775852</v>
+        <v>779880</v>
       </c>
       <c r="N153" s="6" t="n">
-        <v>0.4988164917874402</v>
+        <v>0.4988164917874403</v>
       </c>
       <c r="O153" s="6" t="n">
-        <v>0.4764513489229471</v>
+        <v>0.4756271569787797</v>
       </c>
       <c r="P153" s="6" t="n">
-        <v>0.5201551287963357</v>
+        <v>0.5228550265815584</v>
       </c>
       <c r="Q153" s="5" t="n">
         <v>2054</v>
@@ -10074,19 +10074,19 @@
         <v>1983083</v>
       </c>
       <c r="S153" s="5" t="n">
-        <v>1928611</v>
+        <v>1920472</v>
       </c>
       <c r="T153" s="5" t="n">
-        <v>2042512</v>
+        <v>2041267</v>
       </c>
       <c r="U153" s="6" t="n">
         <v>0.583299131473101</v>
       </c>
       <c r="V153" s="6" t="n">
-        <v>0.5672767420409044</v>
+        <v>0.5648827923561441</v>
       </c>
       <c r="W153" s="6" t="n">
-        <v>0.6007793410170195</v>
+        <v>0.6004131431703745</v>
       </c>
     </row>
     <row r="154">
@@ -10103,19 +10103,19 @@
         <v>28337</v>
       </c>
       <c r="E154" s="5" t="n">
-        <v>18525</v>
+        <v>16568</v>
       </c>
       <c r="F154" s="5" t="n">
-        <v>47587</v>
+        <v>48019</v>
       </c>
       <c r="G154" s="6" t="n">
         <v>0.01484998779274781</v>
       </c>
       <c r="H154" s="6" t="n">
-        <v>0.009708147919668524</v>
+        <v>0.00868273380238095</v>
       </c>
       <c r="I154" s="6" t="n">
-        <v>0.02493827457342413</v>
+        <v>0.02516465693457881</v>
       </c>
       <c r="J154" s="5" t="n">
         <v>19</v>
@@ -10124,19 +10124,19 @@
         <v>14915</v>
       </c>
       <c r="L154" s="5" t="n">
-        <v>9160</v>
+        <v>9482</v>
       </c>
       <c r="M154" s="5" t="n">
-        <v>23427</v>
+        <v>22872</v>
       </c>
       <c r="N154" s="6" t="n">
         <v>0.009999160958289588</v>
       </c>
       <c r="O154" s="6" t="n">
-        <v>0.006141158572802665</v>
+        <v>0.006357285158922346</v>
       </c>
       <c r="P154" s="6" t="n">
-        <v>0.01570590680158074</v>
+        <v>0.01533404487574988</v>
       </c>
       <c r="Q154" s="5" t="n">
         <v>39</v>
@@ -10145,19 +10145,19 @@
         <v>43251</v>
       </c>
       <c r="S154" s="5" t="n">
-        <v>28930</v>
+        <v>30437</v>
       </c>
       <c r="T154" s="5" t="n">
-        <v>60862</v>
+        <v>63277</v>
       </c>
       <c r="U154" s="6" t="n">
         <v>0.01272178853475275</v>
       </c>
       <c r="V154" s="6" t="n">
-        <v>0.008509497883869212</v>
+        <v>0.008952787999073888</v>
       </c>
       <c r="W154" s="6" t="n">
-        <v>0.01790165743667121</v>
+        <v>0.01861206992067943</v>
       </c>
     </row>
     <row r="155">
@@ -10174,19 +10174,19 @@
         <v>266231</v>
       </c>
       <c r="E155" s="5" t="n">
-        <v>233007</v>
+        <v>231513</v>
       </c>
       <c r="F155" s="5" t="n">
-        <v>303910</v>
+        <v>300576</v>
       </c>
       <c r="G155" s="6" t="n">
-        <v>0.1395198959673831</v>
+        <v>0.139519895967383</v>
       </c>
       <c r="H155" s="6" t="n">
-        <v>0.1221089489068408</v>
+        <v>0.1213258078623541</v>
       </c>
       <c r="I155" s="6" t="n">
-        <v>0.159265734213992</v>
+        <v>0.1575186268710774</v>
       </c>
       <c r="J155" s="5" t="n">
         <v>490</v>
@@ -10195,19 +10195,19 @@
         <v>361922</v>
       </c>
       <c r="L155" s="5" t="n">
-        <v>331209</v>
+        <v>331016</v>
       </c>
       <c r="M155" s="5" t="n">
-        <v>391098</v>
+        <v>392648</v>
       </c>
       <c r="N155" s="6" t="n">
         <v>0.2426437426282248</v>
       </c>
       <c r="O155" s="6" t="n">
-        <v>0.2220524430321476</v>
+        <v>0.221923271399193</v>
       </c>
       <c r="P155" s="6" t="n">
-        <v>0.2622037448505307</v>
+        <v>0.2632429022339758</v>
       </c>
       <c r="Q155" s="5" t="n">
         <v>714</v>
@@ -10216,19 +10216,19 @@
         <v>628153</v>
       </c>
       <c r="S155" s="5" t="n">
-        <v>582049</v>
+        <v>583687</v>
       </c>
       <c r="T155" s="5" t="n">
-        <v>676066</v>
+        <v>674983</v>
       </c>
       <c r="U155" s="6" t="n">
         <v>0.1847633361962099</v>
       </c>
       <c r="V155" s="6" t="n">
-        <v>0.171202379345446</v>
+        <v>0.1716842459308939</v>
       </c>
       <c r="W155" s="6" t="n">
-        <v>0.198856218037803</v>
+        <v>0.1985377776407279</v>
       </c>
     </row>
     <row r="156">
